--- a/$ReportFiles/TU13 Summary Statistics.xlsx
+++ b/$ReportFiles/TU13 Summary Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllenProjects\PWC-OLS\$ReportFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\OLS Level Test Project\PWC-OLS\$ReportFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7311B6-6CFB-425A-BFEB-B56CC3CCF90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7BFA8E-2224-4A7F-94E0-816E2A7FE97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18790" windowHeight="10170" xr2:uid="{05A1F908-5A36-4E9D-9115-B77F403BBC12}"/>
+    <workbookView xWindow="2865" yWindow="1185" windowWidth="21555" windowHeight="13440" xr2:uid="{05A1F908-5A36-4E9D-9115-B77F403BBC12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="70">
   <si>
     <t>OLR001--TU13-1-2406191316</t>
   </si>
@@ -235,6 +235,18 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>CHA Fill Deviation from Nominal</t>
+  </si>
+  <si>
+    <t>CHA Drain Deviation from Nominal</t>
+  </si>
+  <si>
+    <t>CHB Fill Deviation from Nominal</t>
+  </si>
+  <si>
+    <t>CHB Drain Deviation from Nominal</t>
+  </si>
 </sst>
 </file>
 
@@ -391,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -422,17 +434,213 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -504,23 +712,24 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -544,218 +753,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1114,13 +1111,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCEB26A-398A-4769-9FF7-18397164AF6D}">
   <dimension ref="A1:AS145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1170,7 +1167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1244,7 +1241,7 @@
         <v>7.4249999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1318,7 +1315,7 @@
         <v>6.9749999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1392,7 +1389,7 @@
         <v>6.5250000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>6.0750000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1540,7 +1537,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1614,7 +1611,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1688,7 +1685,7 @@
         <v>4.7249999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1762,7 +1759,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1836,7 +1833,7 @@
         <v>3.8250000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1910,7 +1907,7 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1984,14 +1981,14 @@
         <v>2.9249999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2000,7 +1997,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
@@ -2038,7 +2035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -2076,7 +2073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2</v>
       </c>
@@ -2114,7 +2111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -2152,7 +2149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -2228,7 +2225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -2266,7 +2263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>7</v>
       </c>
@@ -2304,7 +2301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>8</v>
       </c>
@@ -2342,7 +2339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>9</v>
       </c>
@@ -2380,7 +2377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>10</v>
       </c>
@@ -2418,7 +2415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>11</v>
       </c>
@@ -2456,7 +2453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -2465,7 +2462,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
@@ -2503,7 +2500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -2541,7 +2538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2</v>
       </c>
@@ -2579,7 +2576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>3</v>
       </c>
@@ -2617,7 +2614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>4</v>
       </c>
@@ -2655,7 +2652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>5</v>
       </c>
@@ -2693,7 +2690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>6</v>
       </c>
@@ -2731,7 +2728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>7</v>
       </c>
@@ -2769,7 +2766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>8</v>
       </c>
@@ -2807,7 +2804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>9</v>
       </c>
@@ -2845,7 +2842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>10</v>
       </c>
@@ -2883,7 +2880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>11</v>
       </c>
@@ -2921,7 +2918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -2930,7 +2927,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>2</v>
       </c>
@@ -2968,7 +2965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>1</v>
       </c>
@@ -3006,7 +3003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>2</v>
       </c>
@@ -3044,7 +3041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>3</v>
       </c>
@@ -3082,7 +3079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>4</v>
       </c>
@@ -3120,7 +3117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>5</v>
       </c>
@@ -3158,7 +3155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>6</v>
       </c>
@@ -3196,7 +3193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>7</v>
       </c>
@@ -3234,7 +3231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>8</v>
       </c>
@@ -3272,7 +3269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>9</v>
       </c>
@@ -3310,7 +3307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>10</v>
       </c>
@@ -3348,7 +3345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>11</v>
       </c>
@@ -3386,7 +3383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -3395,7 +3392,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>2</v>
       </c>
@@ -3433,7 +3430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>1</v>
       </c>
@@ -3471,7 +3468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>2</v>
       </c>
@@ -3509,7 +3506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>3</v>
       </c>
@@ -3547,7 +3544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>4</v>
       </c>
@@ -3585,7 +3582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>5</v>
       </c>
@@ -3623,7 +3620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>6</v>
       </c>
@@ -3661,7 +3658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>7</v>
       </c>
@@ -3699,7 +3696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>8</v>
       </c>
@@ -3737,7 +3734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>9</v>
       </c>
@@ -3775,7 +3772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>10</v>
       </c>
@@ -3813,7 +3810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>11</v>
       </c>
@@ -3851,7 +3848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
@@ -3860,7 +3857,7 @@
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>2</v>
       </c>
@@ -3898,7 +3895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>1</v>
       </c>
@@ -3936,7 +3933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>2</v>
       </c>
@@ -3974,7 +3971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>3</v>
       </c>
@@ -4012,7 +4009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>4</v>
       </c>
@@ -4050,7 +4047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>5</v>
       </c>
@@ -4088,7 +4085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>6</v>
       </c>
@@ -4126,7 +4123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>7</v>
       </c>
@@ -4164,7 +4161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>8</v>
       </c>
@@ -4202,7 +4199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>9</v>
       </c>
@@ -4240,7 +4237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>10</v>
       </c>
@@ -4278,7 +4275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>11</v>
       </c>
@@ -4316,7 +4313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15"/>
@@ -4330,7 +4327,7 @@
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="14" t="s">
         <v>18</v>
@@ -4362,7 +4359,7 @@
       <c r="AD85" s="17"/>
       <c r="AE85" s="17"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>22</v>
       </c>
@@ -4436,7 +4433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <f>C3</f>
         <v>0</v>
@@ -4467,27 +4464,27 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4">
-        <f>D3</f>
+        <f t="shared" ref="M87:M97" si="0">D3</f>
         <v>7.55</v>
       </c>
       <c r="N87" s="4">
-        <f>D17</f>
+        <f t="shared" ref="N87:N97" si="1">D17</f>
         <v>7.5510000000000002</v>
       </c>
       <c r="O87" s="4">
-        <f>D31</f>
+        <f t="shared" ref="O87:O97" si="2">D31</f>
         <v>7.55</v>
       </c>
       <c r="P87" s="4">
-        <f>D45</f>
+        <f t="shared" ref="P87:P97" si="3">D45</f>
         <v>7.5510000000000002</v>
       </c>
       <c r="Q87" s="4">
-        <f>D59</f>
+        <f t="shared" ref="Q87:Q97" si="4">D59</f>
         <v>7.5510000000000002</v>
       </c>
       <c r="R87" s="4">
-        <f>D73</f>
+        <f t="shared" ref="R87:R97" si="5">D73</f>
         <v>7.5510000000000002</v>
       </c>
       <c r="S87" s="4"/>
@@ -4541,29 +4538,29 @@
         <v>7.3259999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
-        <f t="shared" ref="B88:B97" si="0">C4</f>
+        <f t="shared" ref="B88:B97" si="6">C4</f>
         <v>7.4809999999999999</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" ref="C88:C97" si="1">C18</f>
+        <f t="shared" ref="C88:C97" si="7">C18</f>
         <v>7.4710000000000001</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" ref="D88:D97" si="2">C32</f>
+        <f t="shared" ref="D88:D97" si="8">C32</f>
         <v>7.476</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" ref="E88:E97" si="3">C46</f>
+        <f t="shared" ref="E88:E97" si="9">C46</f>
         <v>7.4809999999999999</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" ref="F88:F97" si="4">C60</f>
+        <f t="shared" ref="F88:F97" si="10">C60</f>
         <v>7.4690000000000003</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" ref="G88:G97" si="5">C74</f>
+        <f t="shared" ref="G88:G97" si="11">C74</f>
         <v>7.4640000000000004</v>
       </c>
       <c r="H88" s="4"/>
@@ -4572,103 +4569,103 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>7.101</v>
       </c>
       <c r="N88" s="4">
-        <f>D18</f>
+        <f t="shared" si="1"/>
         <v>7.101</v>
       </c>
       <c r="O88" s="4">
-        <f>D32</f>
+        <f t="shared" si="2"/>
         <v>7.1</v>
       </c>
       <c r="P88" s="4">
-        <f>D46</f>
+        <f t="shared" si="3"/>
         <v>7.1</v>
       </c>
       <c r="Q88" s="4">
-        <f>D60</f>
+        <f t="shared" si="4"/>
         <v>7.101</v>
       </c>
       <c r="R88" s="4">
-        <f>D74</f>
+        <f t="shared" si="5"/>
         <v>7.1</v>
       </c>
       <c r="S88" s="4"/>
       <c r="T88" s="4">
-        <f t="shared" ref="T88:T97" si="6">N4</f>
+        <f t="shared" ref="T88:T97" si="12">N4</f>
         <v>7.2539999999999996</v>
       </c>
       <c r="U88" s="4">
-        <f t="shared" ref="U88:U97" si="7">N18</f>
+        <f t="shared" ref="U88:U97" si="13">N18</f>
         <v>7.2480000000000002</v>
       </c>
       <c r="V88" s="4">
-        <f t="shared" ref="V88:V97" si="8">N32</f>
+        <f t="shared" ref="V88:V97" si="14">N32</f>
         <v>7.2469999999999999</v>
       </c>
       <c r="W88" s="4">
-        <f t="shared" ref="W88:W97" si="9">N46</f>
+        <f t="shared" ref="W88:W97" si="15">N46</f>
         <v>7.2510000000000003</v>
       </c>
       <c r="X88" s="4">
-        <f t="shared" ref="X88:X97" si="10">N60</f>
+        <f t="shared" ref="X88:X97" si="16">N60</f>
         <v>7.2380000000000004</v>
       </c>
       <c r="Y88" s="4">
-        <f t="shared" ref="Y88:Y97" si="11">N74</f>
+        <f t="shared" ref="Y88:Y97" si="17">N74</f>
         <v>7.2460000000000004</v>
       </c>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4">
-        <f t="shared" ref="AA88:AA97" si="12">O4</f>
+        <f t="shared" ref="AA88:AA97" si="18">O4</f>
         <v>6.875</v>
       </c>
       <c r="AB88" s="4">
-        <f t="shared" ref="AB88:AB97" si="13">O18</f>
+        <f t="shared" ref="AB88:AB97" si="19">O18</f>
         <v>6.8760000000000003</v>
       </c>
       <c r="AC88" s="4">
-        <f t="shared" ref="AC88:AC97" si="14">O32</f>
+        <f t="shared" ref="AC88:AC97" si="20">O32</f>
         <v>6.875</v>
       </c>
       <c r="AD88" s="4">
-        <f t="shared" ref="AD88:AD97" si="15">O46</f>
+        <f t="shared" ref="AD88:AD97" si="21">O46</f>
         <v>6.8760000000000003</v>
       </c>
       <c r="AE88" s="4">
-        <f t="shared" ref="AE88:AE97" si="16">O60</f>
+        <f t="shared" ref="AE88:AE97" si="22">O60</f>
         <v>6.8760000000000003</v>
       </c>
       <c r="AF88" s="4">
-        <f t="shared" ref="AF88:AF97" si="17">O74</f>
+        <f t="shared" ref="AF88:AF97" si="23">O74</f>
         <v>6.875</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7.0279999999999996</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>7.03</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.0289999999999999</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.03</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.0229999999999997</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.0289999999999999</v>
       </c>
       <c r="H89" s="4"/>
@@ -4677,103 +4674,103 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>6.6509999999999998</v>
       </c>
       <c r="N89" s="4">
-        <f>D19</f>
+        <f t="shared" si="1"/>
         <v>6.6509999999999998</v>
       </c>
       <c r="O89" s="4">
-        <f>D33</f>
+        <f t="shared" si="2"/>
         <v>6.6509999999999998</v>
       </c>
       <c r="P89" s="4">
-        <f>D47</f>
+        <f t="shared" si="3"/>
         <v>6.65</v>
       </c>
       <c r="Q89" s="4">
-        <f>D61</f>
+        <f t="shared" si="4"/>
         <v>6.6509999999999998</v>
       </c>
       <c r="R89" s="4">
-        <f>D75</f>
+        <f t="shared" si="5"/>
         <v>6.6509999999999998</v>
       </c>
       <c r="S89" s="4"/>
       <c r="T89" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6.8090000000000002</v>
       </c>
       <c r="U89" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.8070000000000004</v>
       </c>
       <c r="V89" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.8019999999999996</v>
       </c>
       <c r="W89" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6.8120000000000003</v>
       </c>
       <c r="X89" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6.806</v>
       </c>
       <c r="Y89" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6.8129999999999997</v>
       </c>
       <c r="Z89" s="4"/>
       <c r="AA89" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>6.4260000000000002</v>
       </c>
       <c r="AB89" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6.4260000000000002</v>
       </c>
       <c r="AC89" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>6.4249999999999998</v>
       </c>
       <c r="AD89" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>6.4249999999999998</v>
       </c>
       <c r="AE89" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6.4260000000000002</v>
       </c>
       <c r="AF89" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>6.4260000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.5679999999999996</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.57</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.5650000000000004</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.5759999999999996</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6.5659999999999998</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6.5659999999999998</v>
       </c>
       <c r="H90" s="4"/>
@@ -4782,103 +4779,103 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>6.2</v>
       </c>
       <c r="N90" s="4">
-        <f>D20</f>
+        <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
       <c r="O90" s="4">
-        <f>D34</f>
+        <f t="shared" si="2"/>
         <v>6.2009999999999996</v>
       </c>
       <c r="P90" s="4">
-        <f>D48</f>
+        <f t="shared" si="3"/>
         <v>6.2009999999999996</v>
       </c>
       <c r="Q90" s="4">
-        <f>D62</f>
+        <f t="shared" si="4"/>
         <v>6.2009999999999996</v>
       </c>
       <c r="R90" s="4">
-        <f>D76</f>
+        <f t="shared" si="5"/>
         <v>6.2009999999999996</v>
       </c>
       <c r="S90" s="4"/>
       <c r="T90" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6.343</v>
       </c>
       <c r="U90" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.34</v>
       </c>
       <c r="V90" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.3360000000000003</v>
       </c>
       <c r="W90" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6.3470000000000004</v>
       </c>
       <c r="X90" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6.335</v>
       </c>
       <c r="Y90" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6.3410000000000002</v>
       </c>
       <c r="Z90" s="4"/>
       <c r="AA90" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>5.976</v>
       </c>
       <c r="AB90" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5.976</v>
       </c>
       <c r="AC90" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5.9749999999999996</v>
       </c>
       <c r="AD90" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>5.976</v>
       </c>
       <c r="AE90" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5.9749999999999996</v>
       </c>
       <c r="AF90" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5.976</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.1310000000000002</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.1369999999999996</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.1239999999999997</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.1349999999999998</v>
       </c>
       <c r="F91" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6.12</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6.1260000000000003</v>
       </c>
       <c r="H91" s="4"/>
@@ -4887,103 +4884,103 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
       <c r="N91" s="4">
-        <f>D21</f>
+        <f t="shared" si="1"/>
         <v>5.7510000000000003</v>
       </c>
       <c r="O91" s="4">
-        <f>D35</f>
+        <f t="shared" si="2"/>
         <v>5.7510000000000003</v>
       </c>
       <c r="P91" s="4">
-        <f>D49</f>
+        <f t="shared" si="3"/>
         <v>5.7510000000000003</v>
       </c>
       <c r="Q91" s="4">
-        <f>D63</f>
+        <f t="shared" si="4"/>
         <v>5.7510000000000003</v>
       </c>
       <c r="R91" s="4">
-        <f>D77</f>
+        <f t="shared" si="5"/>
         <v>5.7510000000000003</v>
       </c>
       <c r="S91" s="4"/>
       <c r="T91" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.8979999999999997</v>
       </c>
       <c r="U91" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.9039999999999999</v>
       </c>
       <c r="V91" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.8940000000000001</v>
       </c>
       <c r="W91" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.9020000000000001</v>
       </c>
       <c r="X91" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5.8940000000000001</v>
       </c>
       <c r="Y91" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5.9009999999999998</v>
       </c>
       <c r="Z91" s="4"/>
       <c r="AA91" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>5.5250000000000004</v>
       </c>
       <c r="AB91" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5.5259999999999998</v>
       </c>
       <c r="AC91" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5.5259999999999998</v>
       </c>
       <c r="AD91" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>5.5259999999999998</v>
       </c>
       <c r="AE91" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5.5250000000000004</v>
       </c>
       <c r="AF91" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5.5250000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.6760000000000002</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.6849999999999996</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.6749999999999998</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.6820000000000004</v>
       </c>
       <c r="F92" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.6619999999999999</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.6779999999999999</v>
       </c>
       <c r="H92" s="4"/>
@@ -4992,103 +4989,103 @@
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>5.3010000000000002</v>
       </c>
       <c r="N92" s="4">
-        <f>D22</f>
+        <f t="shared" si="1"/>
         <v>5.3010000000000002</v>
       </c>
       <c r="O92" s="4">
-        <f>D36</f>
+        <f t="shared" si="2"/>
         <v>5.3</v>
       </c>
       <c r="P92" s="4">
-        <f>D50</f>
+        <f t="shared" si="3"/>
         <v>5.3010000000000002</v>
       </c>
       <c r="Q92" s="4">
-        <f>D64</f>
+        <f t="shared" si="4"/>
         <v>5.3</v>
       </c>
       <c r="R92" s="4">
-        <f>D78</f>
+        <f t="shared" si="5"/>
         <v>5.3</v>
       </c>
       <c r="S92" s="4"/>
       <c r="T92" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.4580000000000002</v>
       </c>
       <c r="U92" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.4610000000000003</v>
       </c>
       <c r="V92" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.4539999999999997</v>
       </c>
       <c r="W92" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.4619999999999997</v>
       </c>
       <c r="X92" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5.4539999999999997</v>
       </c>
       <c r="Y92" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5.4459999999999997</v>
       </c>
       <c r="Z92" s="4"/>
       <c r="AA92" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>5.0750000000000002</v>
       </c>
       <c r="AB92" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5.0750000000000002</v>
       </c>
       <c r="AC92" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5.0759999999999996</v>
       </c>
       <c r="AD92" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>5.0750000000000002</v>
       </c>
       <c r="AE92" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5.0750000000000002</v>
       </c>
       <c r="AF92" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5.0759999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.2210000000000001</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.226</v>
       </c>
       <c r="D93" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.2110000000000003</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.2249999999999996</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.2149999999999999</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.2249999999999996</v>
       </c>
       <c r="H93" s="4"/>
@@ -5097,103 +5094,103 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4">
-        <f>D9</f>
+        <f t="shared" si="0"/>
         <v>4.851</v>
       </c>
       <c r="N93" s="4">
-        <f>D23</f>
+        <f t="shared" si="1"/>
         <v>4.851</v>
       </c>
       <c r="O93" s="4">
-        <f>D37</f>
+        <f t="shared" si="2"/>
         <v>4.851</v>
       </c>
       <c r="P93" s="4">
-        <f>D51</f>
+        <f t="shared" si="3"/>
         <v>4.851</v>
       </c>
       <c r="Q93" s="4">
-        <f>D65</f>
+        <f t="shared" si="4"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="R93" s="4">
-        <f>D79</f>
+        <f t="shared" si="5"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="S93" s="4"/>
       <c r="T93" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.008</v>
       </c>
       <c r="U93" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.0069999999999997</v>
       </c>
       <c r="V93" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4.9969999999999999</v>
       </c>
       <c r="W93" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.0049999999999999</v>
       </c>
       <c r="X93" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4.992</v>
       </c>
       <c r="Y93" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.9589999999999996</v>
       </c>
       <c r="Z93" s="4"/>
       <c r="AA93" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4.625</v>
       </c>
       <c r="AB93" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4.625</v>
       </c>
       <c r="AC93" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4.625</v>
       </c>
       <c r="AD93" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>4.6260000000000003</v>
       </c>
       <c r="AE93" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4.6260000000000003</v>
       </c>
       <c r="AF93" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4.625</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.7809999999999997</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.7910000000000004</v>
       </c>
       <c r="D94" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.7789999999999999</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.7839999999999998</v>
       </c>
       <c r="F94" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.7699999999999996</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.7830000000000004</v>
       </c>
       <c r="H94" s="4"/>
@@ -5202,103 +5199,103 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4">
-        <f>D10</f>
+        <f t="shared" si="0"/>
         <v>4.4009999999999998</v>
       </c>
       <c r="N94" s="4">
-        <f>D24</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="O94" s="4">
-        <f>D38</f>
+        <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="P94" s="4">
-        <f>D52</f>
+        <f t="shared" si="3"/>
         <v>4.4009999999999998</v>
       </c>
       <c r="Q94" s="4">
-        <f>D66</f>
+        <f t="shared" si="4"/>
         <v>4.4009999999999998</v>
       </c>
       <c r="R94" s="4">
-        <f>D80</f>
+        <f t="shared" si="5"/>
         <v>4.4009999999999998</v>
       </c>
       <c r="S94" s="4"/>
       <c r="T94" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.5490000000000004</v>
       </c>
       <c r="U94" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.5579999999999998</v>
       </c>
       <c r="V94" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4.5449999999999999</v>
       </c>
       <c r="W94" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.5579999999999998</v>
       </c>
       <c r="X94" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4.5439999999999996</v>
       </c>
       <c r="Y94" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.5439999999999996</v>
       </c>
       <c r="Z94" s="4"/>
       <c r="AA94" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4.1760000000000002</v>
       </c>
       <c r="AB94" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4.1749999999999998</v>
       </c>
       <c r="AC94" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4.1760000000000002</v>
       </c>
       <c r="AD94" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>4.1749999999999998</v>
       </c>
       <c r="AE94" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4.1749999999999998</v>
       </c>
       <c r="AF94" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4.1760000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.3170000000000002</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.3339999999999996</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.32</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.3220000000000001</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.3099999999999996</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.3259999999999996</v>
       </c>
       <c r="H95" s="4"/>
@@ -5307,103 +5304,103 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4">
-        <f>D11</f>
+        <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
       <c r="N95" s="4">
-        <f>D25</f>
+        <f t="shared" si="1"/>
         <v>3.9510000000000001</v>
       </c>
       <c r="O95" s="4">
-        <f>D39</f>
+        <f t="shared" si="2"/>
         <v>3.9510000000000001</v>
       </c>
       <c r="P95" s="4">
-        <f>D53</f>
+        <f t="shared" si="3"/>
         <v>3.95</v>
       </c>
       <c r="Q95" s="4">
-        <f>D67</f>
+        <f t="shared" si="4"/>
         <v>3.9510000000000001</v>
       </c>
       <c r="R95" s="4">
-        <f>D81</f>
+        <f t="shared" si="5"/>
         <v>3.9510000000000001</v>
       </c>
       <c r="S95" s="4"/>
       <c r="T95" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.0860000000000003</v>
       </c>
       <c r="U95" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.0919999999999996</v>
       </c>
       <c r="V95" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4.0830000000000002</v>
       </c>
       <c r="W95" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.0839999999999996</v>
       </c>
       <c r="X95" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4.08</v>
       </c>
       <c r="Y95" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.0860000000000003</v>
       </c>
       <c r="Z95" s="4"/>
       <c r="AA95" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.7250000000000001</v>
       </c>
       <c r="AB95" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3.726</v>
       </c>
       <c r="AC95" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3.726</v>
       </c>
       <c r="AD95" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>3.726</v>
       </c>
       <c r="AE95" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>3.726</v>
       </c>
       <c r="AF95" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.8849999999999998</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.89</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.88</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.8889999999999998</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.8639999999999999</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.8820000000000001</v>
       </c>
       <c r="H96" s="4"/>
@@ -5412,103 +5409,103 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4">
-        <f>D12</f>
+        <f t="shared" si="0"/>
         <v>3.5009999999999999</v>
       </c>
       <c r="N96" s="4">
-        <f>D26</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="O96" s="4">
-        <f>D40</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="P96" s="4">
-        <f>D54</f>
+        <f t="shared" si="3"/>
         <v>3.5009999999999999</v>
       </c>
       <c r="Q96" s="4">
-        <f>D68</f>
+        <f t="shared" si="4"/>
         <v>3.5009999999999999</v>
       </c>
       <c r="R96" s="4">
-        <f>D82</f>
+        <f t="shared" si="5"/>
         <v>3.5009999999999999</v>
       </c>
       <c r="S96" s="4"/>
       <c r="T96" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.6419999999999999</v>
       </c>
       <c r="U96" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.64</v>
       </c>
       <c r="V96" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.6240000000000001</v>
       </c>
       <c r="W96" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.6339999999999999</v>
       </c>
       <c r="X96" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3.609</v>
       </c>
       <c r="Y96" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.637</v>
       </c>
       <c r="Z96" s="4"/>
       <c r="AA96" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.2759999999999998</v>
       </c>
       <c r="AB96" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3.2759999999999998</v>
       </c>
       <c r="AC96" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3.2749999999999999</v>
       </c>
       <c r="AD96" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>3.2759999999999998</v>
       </c>
       <c r="AE96" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>3.2759999999999998</v>
       </c>
       <c r="AF96" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3.2850000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.4169999999999998</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.4220000000000002</v>
       </c>
       <c r="D97" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3.4119999999999999</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.4209999999999998</v>
       </c>
       <c r="F97" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.399</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.419</v>
       </c>
       <c r="H97" s="4"/>
@@ -5517,81 +5514,81 @@
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4">
-        <f>D13</f>
+        <f t="shared" si="0"/>
         <v>3.47</v>
       </c>
       <c r="N97" s="4">
-        <f>D27</f>
+        <f t="shared" si="1"/>
         <v>3.48</v>
       </c>
       <c r="O97" s="4">
-        <f>D41</f>
+        <f t="shared" si="2"/>
         <v>3.4649999999999999</v>
       </c>
       <c r="P97" s="4">
-        <f>D55</f>
+        <f t="shared" si="3"/>
         <v>3.4729999999999999</v>
       </c>
       <c r="Q97" s="4">
-        <f>D69</f>
+        <f t="shared" si="4"/>
         <v>3.4609999999999999</v>
       </c>
       <c r="R97" s="4">
-        <f>D83</f>
+        <f t="shared" si="5"/>
         <v>3.472</v>
       </c>
       <c r="S97" s="4"/>
       <c r="T97" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.1709999999999998</v>
       </c>
       <c r="U97" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.1829999999999998</v>
       </c>
       <c r="V97" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.1739999999999999</v>
       </c>
       <c r="W97" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.1829999999999998</v>
       </c>
       <c r="X97" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3.1659999999999999</v>
       </c>
       <c r="Y97" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.18</v>
       </c>
       <c r="Z97" s="4"/>
       <c r="AA97" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.26</v>
       </c>
       <c r="AB97" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3.274</v>
       </c>
       <c r="AC97" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3.26</v>
       </c>
       <c r="AD97" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>3.2679999999999998</v>
       </c>
       <c r="AE97" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>3.2629999999999999</v>
       </c>
       <c r="AF97" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -5624,7 +5621,7 @@
       <c r="AE98" s="4"/>
       <c r="AF98" s="4"/>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -5657,8 +5654,10 @@
       <c r="AE99" s="4"/>
       <c r="AF99" s="4"/>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="B100" s="4"/>
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -5677,7 +5676,9 @@
         <v>31</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
+      <c r="M100" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
@@ -5696,7 +5697,9 @@
         <v>31</v>
       </c>
       <c r="W100" s="4"/>
-      <c r="X100" s="4"/>
+      <c r="X100" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
@@ -5715,7 +5718,9 @@
         <v>31</v>
       </c>
       <c r="AH100" s="4"/>
-      <c r="AI100" s="4"/>
+      <c r="AI100" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="AJ100" s="4"/>
       <c r="AK100" s="4"/>
       <c r="AL100" s="4"/>
@@ -5734,7 +5739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B101" s="18" t="s">
         <v>32</v>
       </c>
@@ -5759,27 +5764,27 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="18">
-        <f>M87-($Y3+$Z3)/2</f>
+        <f t="shared" ref="M101:M110" si="24">M87-($Y3+$Z3)/2</f>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="N101" s="18">
-        <f t="shared" ref="N101:R101" si="18">N87-($Y3+$Z3)/2</f>
+        <f t="shared" ref="N101:R101" si="25">N87-($Y3+$Z3)/2</f>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="O101" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="P101" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="Q101" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="R101" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="S101" s="4">
@@ -5826,27 +5831,27 @@
       <c r="AG101" s="4"/>
       <c r="AH101" s="4"/>
       <c r="AI101" s="18">
-        <f>AA87-($AE3+$AF3)/2</f>
+        <f t="shared" ref="AI101:AI110" si="26">AA87-($AE3+$AF3)/2</f>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AJ101" s="18">
-        <f>AB87-($AE3+$AF3)/2</f>
+        <f t="shared" ref="AJ101:AJ110" si="27">AB87-($AE3+$AF3)/2</f>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AK101" s="18">
-        <f>AC87-($AE3+$AF3)/2</f>
+        <f t="shared" ref="AK101:AK110" si="28">AC87-($AE3+$AF3)/2</f>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AL101" s="18">
-        <f>AD87-($AE3+$AF3)/2</f>
+        <f t="shared" ref="AL101:AL110" si="29">AD87-($AE3+$AF3)/2</f>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AM101" s="18">
-        <f>AE87-($AE3+$AF3)/2</f>
+        <f t="shared" ref="AM101:AM110" si="30">AE87-($AE3+$AF3)/2</f>
         <v>-4.8000000000000043E-2</v>
       </c>
       <c r="AN101" s="18">
-        <f>AF87-($AE3+$AF3)/2</f>
+        <f t="shared" ref="AN101:AN110" si="31">AF87-($AE3+$AF3)/2</f>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="AO101" s="4">
@@ -5870,29 +5875,29 @@
         <v>1.9999999999997797E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B102" s="18">
-        <f>B88-($W4+$X4)/2</f>
+        <f t="shared" ref="B102:G111" si="32">B88-($W4+$X4)/2</f>
         <v>-2.8999999999999915E-2</v>
       </c>
       <c r="C102" s="18">
-        <f>C88-($W4+$X4)/2</f>
+        <f t="shared" si="32"/>
         <v>-3.8999999999999702E-2</v>
       </c>
       <c r="D102" s="18">
-        <f>D88-($W4+$X4)/2</f>
+        <f t="shared" si="32"/>
         <v>-3.3999999999999808E-2</v>
       </c>
       <c r="E102" s="18">
-        <f>E88-($W4+$X4)/2</f>
+        <f t="shared" si="32"/>
         <v>-2.8999999999999915E-2</v>
       </c>
       <c r="F102" s="18">
-        <f>F88-($W4+$X4)/2</f>
+        <f t="shared" si="32"/>
         <v>-4.0999999999999481E-2</v>
       </c>
       <c r="G102" s="18">
-        <f>G88-($W4+$X4)/2</f>
+        <f t="shared" si="32"/>
         <v>-4.5999999999999375E-2</v>
       </c>
       <c r="H102" s="4">
@@ -5916,27 +5921,27 @@
         <v>1.699999999999946E-2</v>
       </c>
       <c r="M102" s="18">
-        <f>M88-($Y4+$Z4)/2</f>
+        <f t="shared" si="24"/>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="N102" s="18">
-        <f>N88-($Y4+$Z4)/2</f>
+        <f t="shared" ref="N102:R110" si="33">N88-($Y4+$Z4)/2</f>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="O102" s="18">
-        <f>O88-($Y4+$Z4)/2</f>
+        <f t="shared" si="33"/>
         <v>-5.0000000000000711E-2</v>
       </c>
       <c r="P102" s="18">
-        <f>P88-($Y4+$Z4)/2</f>
+        <f t="shared" si="33"/>
         <v>-5.0000000000000711E-2</v>
       </c>
       <c r="Q102" s="18">
-        <f>Q88-($Y4+$Z4)/2</f>
+        <f t="shared" si="33"/>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="R102" s="18">
-        <f>R88-($Y4+$Z4)/2</f>
+        <f t="shared" si="33"/>
         <v>-5.0000000000000711E-2</v>
       </c>
       <c r="S102" s="4">
@@ -5956,31 +5961,31 @@
         <v>-5.0000000000000711E-2</v>
       </c>
       <c r="W102" s="19">
-        <f t="shared" ref="W102:W110" si="19">U102-V102</f>
+        <f t="shared" ref="W102:W110" si="34">U102-V102</f>
         <v>1.000000000000334E-3</v>
       </c>
       <c r="X102" s="18">
-        <f>T88-($AC4+$AD4)/2</f>
+        <f t="shared" ref="X102:X111" si="35">T88-($AC4+$AD4)/2</f>
         <v>-3.1000000000000583E-2</v>
       </c>
       <c r="Y102" s="18">
-        <f>U88-($AC4+$AD4)/2</f>
+        <f t="shared" ref="Y102:Y111" si="36">U88-($AC4+$AD4)/2</f>
         <v>-3.6999999999999922E-2</v>
       </c>
       <c r="Z102" s="18">
-        <f>V88-($AC4+$AD4)/2</f>
+        <f t="shared" ref="Z102:Z111" si="37">V88-($AC4+$AD4)/2</f>
         <v>-3.8000000000000256E-2</v>
       </c>
       <c r="AA102" s="18">
-        <f>W88-($AC4+$AD4)/2</f>
+        <f t="shared" ref="AA102:AA111" si="38">W88-($AC4+$AD4)/2</f>
         <v>-3.3999999999999808E-2</v>
       </c>
       <c r="AB102" s="18">
-        <f>X88-($AC4+$AD4)/2</f>
+        <f t="shared" ref="AB102:AB111" si="39">X88-($AC4+$AD4)/2</f>
         <v>-4.6999999999999709E-2</v>
       </c>
       <c r="AC102" s="18">
-        <f>Y88-($AC4+$AD4)/2</f>
+        <f t="shared" ref="AC102:AC111" si="40">Y88-($AC4+$AD4)/2</f>
         <v>-3.8999999999999702E-2</v>
       </c>
       <c r="AD102" s="4">
@@ -6004,27 +6009,27 @@
         <v>1.5999999999999126E-2</v>
       </c>
       <c r="AI102" s="18">
-        <f>AA88-($AE4+$AF4)/2</f>
+        <f t="shared" si="26"/>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AJ102" s="18">
-        <f>AB88-($AE4+$AF4)/2</f>
+        <f t="shared" si="27"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AK102" s="18">
-        <f>AC88-($AE4+$AF4)/2</f>
+        <f t="shared" si="28"/>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AL102" s="18">
-        <f>AD88-($AE4+$AF4)/2</f>
+        <f t="shared" si="29"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AM102" s="18">
-        <f>AE88-($AE4+$AF4)/2</f>
+        <f t="shared" si="30"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AN102" s="18">
-        <f>AF88-($AE4+$AF4)/2</f>
+        <f t="shared" si="31"/>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AO102" s="4">
@@ -6044,1477 +6049,1477 @@
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AS102" s="19">
-        <f t="shared" ref="AS102:AS110" si="20">AQ102-AR102</f>
+        <f t="shared" ref="AS102:AS110" si="41">AQ102-AR102</f>
         <v>1.000000000000334E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B103" s="18">
-        <f>B89-($W5+$X5)/2</f>
+        <f t="shared" si="32"/>
         <v>-3.2000000000000917E-2</v>
       </c>
       <c r="C103" s="18">
-        <f>C89-($W5+$X5)/2</f>
+        <f t="shared" si="32"/>
         <v>-3.0000000000000249E-2</v>
       </c>
       <c r="D103" s="18">
-        <f>D89-($W5+$X5)/2</f>
+        <f t="shared" si="32"/>
         <v>-3.1000000000000583E-2</v>
       </c>
       <c r="E103" s="18">
-        <f>E89-($W5+$X5)/2</f>
+        <f t="shared" si="32"/>
         <v>-3.0000000000000249E-2</v>
       </c>
       <c r="F103" s="18">
-        <f>F89-($W5+$X5)/2</f>
+        <f t="shared" si="32"/>
         <v>-3.700000000000081E-2</v>
       </c>
       <c r="G103" s="18">
-        <f>G89-($W5+$X5)/2</f>
+        <f t="shared" si="32"/>
         <v>-3.1000000000000583E-2</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" ref="H103:H111" si="21">AVERAGE(B103:G103)</f>
+        <f t="shared" ref="H103:H111" si="42">AVERAGE(B103:G103)</f>
         <v>-3.1833333333333901E-2</v>
       </c>
       <c r="I103" s="4">
-        <f t="shared" ref="I103:I115" si="22">_xlfn.STDEV.P(B103:G103)</f>
+        <f t="shared" ref="I103:I111" si="43">_xlfn.STDEV.P(B103:G103)</f>
         <v>2.4094720491336635E-3</v>
       </c>
       <c r="J103" s="4">
-        <f t="shared" ref="J103:J115" si="23">MAX(B103:G103)</f>
+        <f t="shared" ref="J103:J111" si="44">MAX(B103:G103)</f>
         <v>-3.0000000000000249E-2</v>
       </c>
       <c r="K103" s="4">
-        <f t="shared" ref="K103:K115" si="24">MIN(B103:G103)</f>
+        <f t="shared" ref="K103:K111" si="45">MIN(B103:G103)</f>
         <v>-3.700000000000081E-2</v>
       </c>
       <c r="L103" s="19">
-        <f t="shared" ref="L103:L111" si="25">J103-K103</f>
+        <f t="shared" ref="L103:L111" si="46">J103-K103</f>
         <v>7.0000000000005613E-3</v>
       </c>
       <c r="M103" s="18">
-        <f>M89-($Y5+$Z5)/2</f>
+        <f t="shared" si="24"/>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="N103" s="18">
-        <f>N89-($Y5+$Z5)/2</f>
+        <f t="shared" si="33"/>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="O103" s="18">
-        <f>O89-($Y5+$Z5)/2</f>
+        <f t="shared" si="33"/>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="P103" s="18">
-        <f>P89-($Y5+$Z5)/2</f>
+        <f t="shared" si="33"/>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="Q103" s="18">
-        <f>Q89-($Y5+$Z5)/2</f>
+        <f t="shared" si="33"/>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="R103" s="18">
-        <f>R89-($Y5+$Z5)/2</f>
+        <f t="shared" si="33"/>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="S103" s="4">
-        <f t="shared" ref="S103:S110" si="26">AVERAGE(M103:R103)</f>
+        <f t="shared" ref="S103:S110" si="47">AVERAGE(M103:R103)</f>
         <v>-4.9166666666666949E-2</v>
       </c>
       <c r="T103" s="4">
-        <f t="shared" ref="T103:T115" si="27">_xlfn.STDEV.P(M103:R103)</f>
+        <f t="shared" ref="T103:T110" si="48">_xlfn.STDEV.P(M103:R103)</f>
         <v>3.7267799624975839E-4</v>
       </c>
       <c r="U103" s="4">
-        <f t="shared" ref="U103:U115" si="28">MAX(M103:R103)</f>
+        <f t="shared" ref="U103:U110" si="49">MAX(M103:R103)</f>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="V103" s="4">
-        <f t="shared" ref="V103:V115" si="29">MIN(M103:R103)</f>
+        <f t="shared" ref="V103:V110" si="50">MIN(M103:R103)</f>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="W103" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999944578E-4</v>
       </c>
       <c r="X103" s="18">
-        <f>T89-($AC5+$AD5)/2</f>
+        <f t="shared" si="35"/>
         <v>-2.5999999999999801E-2</v>
       </c>
       <c r="Y103" s="18">
-        <f>U89-($AC5+$AD5)/2</f>
+        <f t="shared" si="36"/>
         <v>-2.7999999999999581E-2</v>
       </c>
       <c r="Z103" s="18">
-        <f>V89-($AC5+$AD5)/2</f>
+        <f t="shared" si="37"/>
         <v>-3.3000000000000362E-2</v>
       </c>
       <c r="AA103" s="18">
-        <f>W89-($AC5+$AD5)/2</f>
+        <f t="shared" si="38"/>
         <v>-2.2999999999999687E-2</v>
       </c>
       <c r="AB103" s="18">
-        <f>X89-($AC5+$AD5)/2</f>
+        <f t="shared" si="39"/>
         <v>-2.8999999999999915E-2</v>
       </c>
       <c r="AC103" s="18">
-        <f>Y89-($AC5+$AD5)/2</f>
+        <f t="shared" si="40"/>
         <v>-2.2000000000000242E-2</v>
       </c>
       <c r="AD103" s="4">
-        <f t="shared" ref="AD103:AD111" si="30">AVERAGE(X103:AC103)</f>
+        <f t="shared" ref="AD103:AD111" si="51">AVERAGE(X103:AC103)</f>
         <v>-2.6833333333333265E-2</v>
       </c>
       <c r="AE103" s="4">
-        <f t="shared" ref="AE103:AE115" si="31">_xlfn.STDEV.P(X103:AC103)</f>
+        <f t="shared" ref="AE103:AE111" si="52">_xlfn.STDEV.P(X103:AC103)</f>
         <v>3.7155828016014044E-3</v>
       </c>
       <c r="AF103" s="4">
-        <f t="shared" ref="AF103:AF115" si="32">MAX(X103:AC103)</f>
+        <f t="shared" ref="AF103:AF111" si="53">MAX(X103:AC103)</f>
         <v>-2.2000000000000242E-2</v>
       </c>
       <c r="AG103" s="4">
-        <f t="shared" ref="AG103:AG115" si="33">MIN(X103:AC103)</f>
+        <f t="shared" ref="AG103:AG111" si="54">MIN(X103:AC103)</f>
         <v>-3.3000000000000362E-2</v>
       </c>
       <c r="AH103" s="19">
-        <f t="shared" ref="AH103:AH111" si="34">AF103-AG103</f>
+        <f t="shared" ref="AH103:AH111" si="55">AF103-AG103</f>
         <v>1.1000000000000121E-2</v>
       </c>
       <c r="AI103" s="18">
-        <f>AA89-($AE5+$AF5)/2</f>
+        <f t="shared" si="26"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AJ103" s="18">
-        <f>AB89-($AE5+$AF5)/2</f>
+        <f t="shared" si="27"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AK103" s="18">
-        <f>AC89-($AE5+$AF5)/2</f>
+        <f t="shared" si="28"/>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AL103" s="18">
-        <f>AD89-($AE5+$AF5)/2</f>
+        <f t="shared" si="29"/>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AM103" s="18">
-        <f>AE89-($AE5+$AF5)/2</f>
+        <f t="shared" si="30"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AN103" s="18">
-        <f>AF89-($AE5+$AF5)/2</f>
+        <f t="shared" si="31"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AO103" s="4">
-        <f t="shared" ref="AO103:AO110" si="35">AVERAGE(AI103:AN103)</f>
+        <f t="shared" ref="AO103:AO110" si="56">AVERAGE(AI103:AN103)</f>
         <v>-4.9333333333332931E-2</v>
       </c>
       <c r="AP103" s="4">
-        <f t="shared" ref="AP103:AP115" si="36">_xlfn.STDEV.P(AI103:AN103)</f>
+        <f t="shared" ref="AP103:AP110" si="57">_xlfn.STDEV.P(AI103:AN103)</f>
         <v>4.7140452079118907E-4</v>
       </c>
       <c r="AQ103" s="4">
-        <f t="shared" ref="AQ103:AQ115" si="37">MAX(AI103:AN103)</f>
+        <f t="shared" ref="AQ103:AQ110" si="58">MAX(AI103:AN103)</f>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AR103" s="4">
-        <f t="shared" ref="AR103:AR115" si="38">MIN(AI103:AN103)</f>
+        <f t="shared" ref="AR103:AR110" si="59">MIN(AI103:AN103)</f>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AS103" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>1.000000000000334E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B104" s="18">
-        <f>B90-($W6+$X6)/2</f>
+        <f t="shared" si="32"/>
         <v>-4.1999999999999815E-2</v>
       </c>
       <c r="C104" s="18">
-        <f>C90-($W6+$X6)/2</f>
+        <f t="shared" si="32"/>
         <v>-3.9999999999999147E-2</v>
       </c>
       <c r="D104" s="18">
-        <f>D90-($W6+$X6)/2</f>
+        <f t="shared" si="32"/>
         <v>-4.4999999999999041E-2</v>
       </c>
       <c r="E104" s="18">
-        <f>E90-($W6+$X6)/2</f>
+        <f t="shared" si="32"/>
         <v>-3.3999999999999808E-2</v>
       </c>
       <c r="F104" s="18">
-        <f>F90-($W6+$X6)/2</f>
+        <f t="shared" si="32"/>
         <v>-4.3999999999999595E-2</v>
       </c>
       <c r="G104" s="18">
-        <f>G90-($W6+$X6)/2</f>
+        <f t="shared" si="32"/>
         <v>-4.3999999999999595E-2</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>-4.1499999999999503E-2</v>
       </c>
       <c r="I104" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>3.730504880933109E-3</v>
       </c>
       <c r="J104" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>-3.3999999999999808E-2</v>
       </c>
       <c r="K104" s="4">
+        <f t="shared" si="45"/>
+        <v>-4.4999999999999041E-2</v>
+      </c>
+      <c r="L104" s="19">
+        <f t="shared" si="46"/>
+        <v>1.0999999999999233E-2</v>
+      </c>
+      <c r="M104" s="18">
         <f t="shared" si="24"/>
-        <v>-4.4999999999999041E-2</v>
-      </c>
-      <c r="L104" s="19">
-        <f t="shared" si="25"/>
-        <v>1.0999999999999233E-2</v>
-      </c>
-      <c r="M104" s="18">
-        <f>M90-($Y6+$Z6)/2</f>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="N104" s="18">
-        <f>N90-($Y6+$Z6)/2</f>
+        <f t="shared" si="33"/>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="O104" s="18">
-        <f>O90-($Y6+$Z6)/2</f>
+        <f t="shared" si="33"/>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="P104" s="18">
-        <f>P90-($Y6+$Z6)/2</f>
+        <f t="shared" si="33"/>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="Q104" s="18">
-        <f>Q90-($Y6+$Z6)/2</f>
+        <f t="shared" si="33"/>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="R104" s="18">
-        <f>R90-($Y6+$Z6)/2</f>
+        <f t="shared" si="33"/>
         <v>-4.9000000000000377E-2</v>
       </c>
       <c r="S104" s="4">
+        <f t="shared" si="47"/>
+        <v>-4.9333333333333527E-2</v>
+      </c>
+      <c r="T104" s="4">
+        <f t="shared" si="48"/>
+        <v>4.7140452079077045E-4</v>
+      </c>
+      <c r="U104" s="4">
+        <f t="shared" si="49"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="V104" s="4">
+        <f t="shared" si="50"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="W104" s="19">
+        <f t="shared" si="34"/>
+        <v>9.9999999999944578E-4</v>
+      </c>
+      <c r="X104" s="18">
+        <f t="shared" si="35"/>
+        <v>-4.1999999999999815E-2</v>
+      </c>
+      <c r="Y104" s="18">
+        <f t="shared" si="36"/>
+        <v>-4.4999999999999929E-2</v>
+      </c>
+      <c r="Z104" s="18">
+        <f t="shared" si="37"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="AA104" s="18">
+        <f t="shared" si="38"/>
+        <v>-3.7999999999999368E-2</v>
+      </c>
+      <c r="AB104" s="18">
+        <f t="shared" si="39"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AC104" s="18">
+        <f t="shared" si="40"/>
+        <v>-4.3999999999999595E-2</v>
+      </c>
+      <c r="AD104" s="4">
+        <f t="shared" si="51"/>
+        <v>-4.4666666666666334E-2</v>
+      </c>
+      <c r="AE104" s="4">
+        <f t="shared" si="52"/>
+        <v>4.068851871911308E-3</v>
+      </c>
+      <c r="AF104" s="4">
+        <f t="shared" si="53"/>
+        <v>-3.7999999999999368E-2</v>
+      </c>
+      <c r="AG104" s="4">
+        <f t="shared" si="54"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AH104" s="19">
+        <f t="shared" si="55"/>
+        <v>1.2000000000000455E-2</v>
+      </c>
+      <c r="AI104" s="18">
         <f t="shared" si="26"/>
-        <v>-4.9333333333333527E-2</v>
-      </c>
-      <c r="T104" s="4">
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AJ104" s="18">
         <f t="shared" si="27"/>
-        <v>4.7140452079077045E-4</v>
-      </c>
-      <c r="U104" s="4">
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AK104" s="18">
+        <f t="shared" si="28"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="AL104" s="18">
+        <f t="shared" si="29"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AM104" s="18">
+        <f t="shared" si="30"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="AN104" s="18">
+        <f t="shared" si="31"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AO104" s="4">
+        <f t="shared" si="56"/>
+        <v>-4.9333333333333819E-2</v>
+      </c>
+      <c r="AP104" s="4">
+        <f t="shared" si="57"/>
+        <v>4.7140452079118912E-4</v>
+      </c>
+      <c r="AQ104" s="4">
+        <f t="shared" si="58"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AR104" s="4">
+        <f t="shared" si="59"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="AS104" s="19">
+        <f t="shared" si="41"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B105" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.8999999999999915E-2</v>
+      </c>
+      <c r="C105" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.3000000000000576E-2</v>
+      </c>
+      <c r="D105" s="18">
+        <f t="shared" si="32"/>
+        <v>-3.6000000000000476E-2</v>
+      </c>
+      <c r="E105" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.5000000000000355E-2</v>
+      </c>
+      <c r="F105" s="18">
+        <f t="shared" si="32"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="G105" s="18">
+        <f t="shared" si="32"/>
+        <v>-3.3999999999999808E-2</v>
+      </c>
+      <c r="H105" s="4">
+        <f t="shared" si="42"/>
+        <v>-3.116666666666686E-2</v>
+      </c>
+      <c r="I105" s="4">
+        <f t="shared" si="43"/>
+        <v>6.0392236439976892E-3</v>
+      </c>
+      <c r="J105" s="4">
+        <f t="shared" si="44"/>
+        <v>-2.3000000000000576E-2</v>
+      </c>
+      <c r="K105" s="4">
+        <f t="shared" si="45"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="L105" s="19">
+        <f t="shared" si="46"/>
+        <v>1.699999999999946E-2</v>
+      </c>
+      <c r="M105" s="18">
+        <f t="shared" si="24"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="N105" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="O105" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="P105" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="Q105" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="R105" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="S105" s="4">
+        <f t="shared" si="47"/>
+        <v>-4.9166666666666213E-2</v>
+      </c>
+      <c r="T105" s="4">
+        <f t="shared" si="48"/>
+        <v>3.7267799625008945E-4</v>
+      </c>
+      <c r="U105" s="4">
+        <f t="shared" si="49"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="V105" s="4">
+        <f t="shared" si="50"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="W105" s="19">
+        <f t="shared" si="34"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="X105" s="18">
+        <f t="shared" si="35"/>
+        <v>-3.700000000000081E-2</v>
+      </c>
+      <c r="Y105" s="18">
+        <f t="shared" si="36"/>
+        <v>-3.1000000000000583E-2</v>
+      </c>
+      <c r="Z105" s="18">
+        <f t="shared" si="37"/>
+        <v>-4.1000000000000369E-2</v>
+      </c>
+      <c r="AA105" s="18">
+        <f t="shared" si="38"/>
+        <v>-3.3000000000000362E-2</v>
+      </c>
+      <c r="AB105" s="18">
+        <f t="shared" si="39"/>
+        <v>-4.1000000000000369E-2</v>
+      </c>
+      <c r="AC105" s="18">
+        <f t="shared" si="40"/>
+        <v>-3.4000000000000696E-2</v>
+      </c>
+      <c r="AD105" s="4">
+        <f t="shared" si="51"/>
+        <v>-3.6166666666667201E-2</v>
+      </c>
+      <c r="AE105" s="4">
+        <f t="shared" si="52"/>
+        <v>3.847798793538337E-3</v>
+      </c>
+      <c r="AF105" s="4">
+        <f t="shared" si="53"/>
+        <v>-3.1000000000000583E-2</v>
+      </c>
+      <c r="AG105" s="4">
+        <f t="shared" si="54"/>
+        <v>-4.1000000000000369E-2</v>
+      </c>
+      <c r="AH105" s="19">
+        <f t="shared" si="55"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="AI105" s="18">
+        <f t="shared" si="26"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AJ105" s="18">
+        <f t="shared" si="27"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AK105" s="18">
         <f t="shared" si="28"/>
         <v>-4.9000000000000377E-2</v>
       </c>
-      <c r="V104" s="4">
+      <c r="AL105" s="18">
+        <f t="shared" si="29"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AM105" s="18">
+        <f t="shared" si="30"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AN105" s="18">
+        <f t="shared" si="31"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AO105" s="4">
+        <f t="shared" si="56"/>
+        <v>-4.9500000000000099E-2</v>
+      </c>
+      <c r="AP105" s="4">
+        <f t="shared" si="57"/>
+        <v>4.9999999999972289E-4</v>
+      </c>
+      <c r="AQ105" s="4">
+        <f t="shared" si="58"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AR105" s="4">
+        <f t="shared" si="59"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AS105" s="19">
+        <f t="shared" si="41"/>
+        <v>9.9999999999944578E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B106" s="18">
+        <f t="shared" si="32"/>
+        <v>-3.3999999999999808E-2</v>
+      </c>
+      <c r="C106" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.5000000000000355E-2</v>
+      </c>
+      <c r="D106" s="18">
+        <f t="shared" si="32"/>
+        <v>-3.5000000000000142E-2</v>
+      </c>
+      <c r="E106" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.7999999999999581E-2</v>
+      </c>
+      <c r="F106" s="18">
+        <f t="shared" si="32"/>
+        <v>-4.8000000000000043E-2</v>
+      </c>
+      <c r="G106" s="18">
+        <f t="shared" si="32"/>
+        <v>-3.2000000000000028E-2</v>
+      </c>
+      <c r="H106" s="4">
+        <f t="shared" si="42"/>
+        <v>-3.3666666666666657E-2</v>
+      </c>
+      <c r="I106" s="4">
+        <f t="shared" si="43"/>
+        <v>7.2724747430904686E-3</v>
+      </c>
+      <c r="J106" s="4">
+        <f t="shared" si="44"/>
+        <v>-2.5000000000000355E-2</v>
+      </c>
+      <c r="K106" s="4">
+        <f t="shared" si="45"/>
+        <v>-4.8000000000000043E-2</v>
+      </c>
+      <c r="L106" s="19">
+        <f t="shared" si="46"/>
+        <v>2.2999999999999687E-2</v>
+      </c>
+      <c r="M106" s="18">
+        <f t="shared" si="24"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="N106" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="O106" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="P106" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="Q106" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="R106" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="S106" s="4">
+        <f t="shared" si="47"/>
+        <v>-4.9499999999999655E-2</v>
+      </c>
+      <c r="T106" s="4">
+        <f t="shared" si="48"/>
+        <v>5.0000000000016698E-4</v>
+      </c>
+      <c r="U106" s="4">
+        <f t="shared" si="49"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="V106" s="4">
+        <f t="shared" si="50"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="W106" s="19">
+        <f t="shared" si="34"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="X106" s="18">
+        <f t="shared" si="35"/>
+        <v>-2.6999999999999247E-2</v>
+      </c>
+      <c r="Y106" s="18">
+        <f t="shared" si="36"/>
+        <v>-2.3999999999999133E-2</v>
+      </c>
+      <c r="Z106" s="18">
+        <f t="shared" si="37"/>
+        <v>-3.0999999999999694E-2</v>
+      </c>
+      <c r="AA106" s="18">
+        <f t="shared" si="38"/>
+        <v>-2.2999999999999687E-2</v>
+      </c>
+      <c r="AB106" s="18">
+        <f t="shared" si="39"/>
+        <v>-3.0999999999999694E-2</v>
+      </c>
+      <c r="AC106" s="18">
+        <f t="shared" si="40"/>
+        <v>-3.8999999999999702E-2</v>
+      </c>
+      <c r="AD106" s="4">
+        <f t="shared" si="51"/>
+        <v>-2.9166666666666192E-2</v>
+      </c>
+      <c r="AE106" s="4">
+        <f t="shared" si="52"/>
+        <v>5.3670807293683303E-3</v>
+      </c>
+      <c r="AF106" s="4">
+        <f t="shared" si="53"/>
+        <v>-2.2999999999999687E-2</v>
+      </c>
+      <c r="AG106" s="4">
+        <f t="shared" si="54"/>
+        <v>-3.8999999999999702E-2</v>
+      </c>
+      <c r="AH106" s="19">
+        <f t="shared" si="55"/>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="AI106" s="18">
+        <f t="shared" si="26"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AJ106" s="18">
+        <f t="shared" si="27"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AK106" s="18">
+        <f t="shared" si="28"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AL106" s="18">
         <f t="shared" si="29"/>
         <v>-4.9999999999999822E-2</v>
       </c>
-      <c r="W104" s="19">
-        <f t="shared" si="19"/>
+      <c r="AM106" s="18">
+        <f t="shared" si="30"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AN106" s="18">
+        <f t="shared" si="31"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AO106" s="4">
+        <f t="shared" si="56"/>
+        <v>-4.9666666666666671E-2</v>
+      </c>
+      <c r="AP106" s="4">
+        <f t="shared" si="57"/>
+        <v>4.714045207907704E-4</v>
+      </c>
+      <c r="AQ106" s="4">
+        <f t="shared" si="58"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AR106" s="4">
+        <f t="shared" si="59"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AS106" s="19">
+        <f t="shared" si="41"/>
         <v>9.9999999999944578E-4</v>
       </c>
-      <c r="X104" s="18">
-        <f>T90-($AC6+$AD6)/2</f>
-        <v>-4.1999999999999815E-2</v>
-      </c>
-      <c r="Y104" s="18">
-        <f>U90-($AC6+$AD6)/2</f>
+    </row>
+    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B107" s="18">
+        <f t="shared" si="32"/>
+        <v>-3.8999999999999702E-2</v>
+      </c>
+      <c r="C107" s="18">
+        <f t="shared" si="32"/>
+        <v>-3.3999999999999808E-2</v>
+      </c>
+      <c r="D107" s="18">
+        <f t="shared" si="32"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="E107" s="18">
+        <f t="shared" si="32"/>
+        <v>-3.5000000000000142E-2</v>
+      </c>
+      <c r="F107" s="18">
+        <f t="shared" si="32"/>
         <v>-4.4999999999999929E-2</v>
       </c>
-      <c r="Z104" s="18">
-        <f>V90-($AC6+$AD6)/2</f>
+      <c r="G107" s="18">
+        <f t="shared" si="32"/>
+        <v>-3.5000000000000142E-2</v>
+      </c>
+      <c r="H107" s="4">
+        <f t="shared" si="42"/>
+        <v>-3.9499999999999869E-2</v>
+      </c>
+      <c r="I107" s="4">
+        <f t="shared" si="43"/>
+        <v>5.6494837522259407E-3</v>
+      </c>
+      <c r="J107" s="4">
+        <f t="shared" si="44"/>
+        <v>-3.3999999999999808E-2</v>
+      </c>
+      <c r="K107" s="4">
+        <f t="shared" si="45"/>
         <v>-4.8999999999999488E-2</v>
       </c>
-      <c r="AA104" s="18">
-        <f>W90-($AC6+$AD6)/2</f>
-        <v>-3.7999999999999368E-2</v>
-      </c>
-      <c r="AB104" s="18">
-        <f>X90-($AC6+$AD6)/2</f>
+      <c r="L107" s="19">
+        <f t="shared" si="46"/>
+        <v>1.499999999999968E-2</v>
+      </c>
+      <c r="M107" s="18">
+        <f t="shared" si="24"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="N107" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="O107" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="P107" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="Q107" s="18">
+        <f t="shared" si="33"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="R107" s="18">
+        <f t="shared" si="33"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="S107" s="4">
+        <f t="shared" si="47"/>
+        <v>-4.9333333333333819E-2</v>
+      </c>
+      <c r="T107" s="4">
+        <f t="shared" si="48"/>
+        <v>4.7140452079118912E-4</v>
+      </c>
+      <c r="U107" s="4">
+        <f t="shared" si="49"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="V107" s="4">
+        <f t="shared" si="50"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="W107" s="19">
+        <f t="shared" si="34"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="X107" s="18">
+        <f t="shared" si="35"/>
+        <v>-2.7000000000000135E-2</v>
+      </c>
+      <c r="Y107" s="18">
+        <f t="shared" si="36"/>
+        <v>-2.8000000000000469E-2</v>
+      </c>
+      <c r="Z107" s="18">
+        <f t="shared" si="37"/>
+        <v>-3.8000000000000256E-2</v>
+      </c>
+      <c r="AA107" s="18">
+        <f t="shared" si="38"/>
+        <v>-3.0000000000000249E-2</v>
+      </c>
+      <c r="AB107" s="18">
+        <f t="shared" si="39"/>
+        <v>-4.3000000000000149E-2</v>
+      </c>
+      <c r="AC107" s="18">
+        <f t="shared" si="40"/>
+        <v>-7.6000000000000512E-2</v>
+      </c>
+      <c r="AD107" s="4">
+        <f t="shared" si="51"/>
+        <v>-4.0333333333333631E-2</v>
+      </c>
+      <c r="AE107" s="4">
+        <f t="shared" si="52"/>
+        <v>1.6937794687883409E-2</v>
+      </c>
+      <c r="AF107" s="4">
+        <f t="shared" si="53"/>
+        <v>-2.7000000000000135E-2</v>
+      </c>
+      <c r="AG107" s="4">
+        <f t="shared" si="54"/>
+        <v>-7.6000000000000512E-2</v>
+      </c>
+      <c r="AH107" s="19">
+        <f t="shared" si="55"/>
+        <v>4.9000000000000377E-2</v>
+      </c>
+      <c r="AI107" s="18">
+        <f t="shared" si="26"/>
         <v>-4.9999999999999822E-2</v>
       </c>
-      <c r="AC104" s="18">
-        <f>Y90-($AC6+$AD6)/2</f>
-        <v>-4.3999999999999595E-2</v>
-      </c>
-      <c r="AD104" s="4">
+      <c r="AJ107" s="18">
+        <f t="shared" si="27"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AK107" s="18">
+        <f t="shared" si="28"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AL107" s="18">
+        <f t="shared" si="29"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="AM107" s="18">
         <f t="shared" si="30"/>
-        <v>-4.4666666666666334E-2</v>
-      </c>
-      <c r="AE104" s="4">
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="AN107" s="18">
         <f t="shared" si="31"/>
-        <v>4.068851871911308E-3</v>
-      </c>
-      <c r="AF104" s="4">
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AO107" s="4">
+        <f t="shared" si="56"/>
+        <v>-4.966666666666638E-2</v>
+      </c>
+      <c r="AP107" s="4">
+        <f t="shared" si="57"/>
+        <v>4.7140452079118912E-4</v>
+      </c>
+      <c r="AQ107" s="4">
+        <f t="shared" si="58"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="AR107" s="4">
+        <f t="shared" si="59"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AS107" s="19">
+        <f t="shared" si="41"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B108" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.9000000000000803E-2</v>
+      </c>
+      <c r="C108" s="18">
+        <f t="shared" si="32"/>
+        <v>-1.9000000000000128E-2</v>
+      </c>
+      <c r="D108" s="18">
+        <f t="shared" si="32"/>
+        <v>-3.1000000000000583E-2</v>
+      </c>
+      <c r="E108" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.6000000000000689E-2</v>
+      </c>
+      <c r="F108" s="18">
+        <f t="shared" si="32"/>
+        <v>-4.0000000000000924E-2</v>
+      </c>
+      <c r="G108" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.7000000000000135E-2</v>
+      </c>
+      <c r="H108" s="4">
+        <f t="shared" si="42"/>
+        <v>-2.8666666666667211E-2</v>
+      </c>
+      <c r="I108" s="4">
+        <f t="shared" si="43"/>
+        <v>6.2893207547046357E-3</v>
+      </c>
+      <c r="J108" s="4">
+        <f t="shared" si="44"/>
+        <v>-1.9000000000000128E-2</v>
+      </c>
+      <c r="K108" s="4">
+        <f t="shared" si="45"/>
+        <v>-4.0000000000000924E-2</v>
+      </c>
+      <c r="L108" s="19">
+        <f t="shared" si="46"/>
+        <v>2.1000000000000796E-2</v>
+      </c>
+      <c r="M108" s="18">
+        <f t="shared" si="24"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="N108" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="O108" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="P108" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="Q108" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="R108" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="S108" s="4">
+        <f t="shared" si="47"/>
+        <v>-4.9333333333333527E-2</v>
+      </c>
+      <c r="T108" s="4">
+        <f t="shared" si="48"/>
+        <v>4.7140452079077045E-4</v>
+      </c>
+      <c r="U108" s="4">
+        <f t="shared" si="49"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="V108" s="4">
+        <f t="shared" si="50"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="W108" s="19">
+        <f t="shared" si="34"/>
+        <v>9.9999999999944578E-4</v>
+      </c>
+      <c r="X108" s="18">
+        <f t="shared" si="35"/>
+        <v>-3.5999999999999588E-2</v>
+      </c>
+      <c r="Y108" s="18">
+        <f t="shared" si="36"/>
+        <v>-2.7000000000000135E-2</v>
+      </c>
+      <c r="Z108" s="18">
+        <f t="shared" si="37"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="AA108" s="18">
+        <f t="shared" si="38"/>
+        <v>-2.7000000000000135E-2</v>
+      </c>
+      <c r="AB108" s="18">
+        <f t="shared" si="39"/>
+        <v>-4.1000000000000369E-2</v>
+      </c>
+      <c r="AC108" s="18">
+        <f t="shared" si="40"/>
+        <v>-4.1000000000000369E-2</v>
+      </c>
+      <c r="AD108" s="4">
+        <f t="shared" si="51"/>
+        <v>-3.5333333333333439E-2</v>
+      </c>
+      <c r="AE108" s="4">
+        <f t="shared" si="52"/>
+        <v>6.1282587702834726E-3</v>
+      </c>
+      <c r="AF108" s="4">
+        <f t="shared" si="53"/>
+        <v>-2.7000000000000135E-2</v>
+      </c>
+      <c r="AG108" s="4">
+        <f t="shared" si="54"/>
+        <v>-4.1000000000000369E-2</v>
+      </c>
+      <c r="AH108" s="19">
+        <f t="shared" si="55"/>
+        <v>1.4000000000000234E-2</v>
+      </c>
+      <c r="AI108" s="18">
+        <f t="shared" si="26"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="AJ108" s="18">
+        <f t="shared" si="27"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AK108" s="18">
+        <f t="shared" si="28"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="AL108" s="18">
+        <f t="shared" si="29"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AM108" s="18">
+        <f t="shared" si="30"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AN108" s="18">
+        <f t="shared" si="31"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="AO108" s="4">
+        <f t="shared" si="56"/>
+        <v>-4.9499999999999655E-2</v>
+      </c>
+      <c r="AP108" s="4">
+        <f t="shared" si="57"/>
+        <v>5.0000000000016698E-4</v>
+      </c>
+      <c r="AQ108" s="4">
+        <f t="shared" si="58"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="AR108" s="4">
+        <f t="shared" si="59"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="AS108" s="19">
+        <f t="shared" si="41"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B109" s="18">
+        <f t="shared" si="32"/>
+        <v>-4.2999999999999261E-2</v>
+      </c>
+      <c r="C109" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.5999999999999801E-2</v>
+      </c>
+      <c r="D109" s="18">
+        <f t="shared" si="32"/>
+        <v>-3.9999999999999147E-2</v>
+      </c>
+      <c r="E109" s="18">
         <f t="shared" si="32"/>
         <v>-3.7999999999999368E-2</v>
       </c>
-      <c r="AG104" s="4">
+      <c r="F109" s="18">
+        <f t="shared" si="32"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="G109" s="18">
+        <f t="shared" si="32"/>
+        <v>-3.3999999999999808E-2</v>
+      </c>
+      <c r="H109" s="4">
+        <f t="shared" si="42"/>
+        <v>-3.8499999999999535E-2</v>
+      </c>
+      <c r="I109" s="4">
+        <f t="shared" si="43"/>
+        <v>7.4330343736591833E-3</v>
+      </c>
+      <c r="J109" s="4">
+        <f t="shared" si="44"/>
+        <v>-2.5999999999999801E-2</v>
+      </c>
+      <c r="K109" s="4">
+        <f t="shared" si="45"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="L109" s="19">
+        <f t="shared" si="46"/>
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="M109" s="18">
+        <f t="shared" si="24"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="N109" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999932E-2</v>
+      </c>
+      <c r="O109" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999932E-2</v>
+      </c>
+      <c r="P109" s="18">
         <f t="shared" si="33"/>
         <v>-4.9999999999999822E-2</v>
       </c>
-      <c r="AH104" s="19">
+      <c r="Q109" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999932E-2</v>
+      </c>
+      <c r="R109" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999932E-2</v>
+      </c>
+      <c r="S109" s="4">
+        <f t="shared" si="47"/>
+        <v>-4.9333333333333229E-2</v>
+      </c>
+      <c r="T109" s="4">
+        <f t="shared" si="48"/>
+        <v>4.7140452079097981E-4</v>
+      </c>
+      <c r="U109" s="4">
+        <f t="shared" si="49"/>
+        <v>-4.8999999999999932E-2</v>
+      </c>
+      <c r="V109" s="4">
+        <f t="shared" si="50"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="W109" s="19">
         <f t="shared" si="34"/>
-        <v>1.2000000000000455E-2</v>
-      </c>
-      <c r="AI104" s="18">
-        <f>AA90-($AE6+$AF6)/2</f>
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="X109" s="18">
+        <f t="shared" si="35"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="Y109" s="18">
+        <f t="shared" si="36"/>
+        <v>-4.3000000000000149E-2</v>
+      </c>
+      <c r="Z109" s="18">
+        <f t="shared" si="37"/>
+        <v>-5.1999999999999602E-2</v>
+      </c>
+      <c r="AA109" s="18">
+        <f t="shared" si="38"/>
+        <v>-5.1000000000000156E-2</v>
+      </c>
+      <c r="AB109" s="18">
+        <f t="shared" si="39"/>
+        <v>-5.4999999999999716E-2</v>
+      </c>
+      <c r="AC109" s="18">
+        <f t="shared" si="40"/>
+        <v>-4.8999999999999488E-2</v>
+      </c>
+      <c r="AD109" s="4">
+        <f t="shared" si="51"/>
+        <v>-4.9833333333333098E-2</v>
+      </c>
+      <c r="AE109" s="4">
+        <f t="shared" si="52"/>
+        <v>3.6704525909241016E-3</v>
+      </c>
+      <c r="AF109" s="4">
+        <f t="shared" si="53"/>
+        <v>-4.3000000000000149E-2</v>
+      </c>
+      <c r="AG109" s="4">
+        <f t="shared" si="54"/>
+        <v>-5.4999999999999716E-2</v>
+      </c>
+      <c r="AH109" s="19">
+        <f t="shared" si="55"/>
+        <v>1.1999999999999567E-2</v>
+      </c>
+      <c r="AI109" s="18">
+        <f t="shared" si="26"/>
+        <v>-5.0000000000000266E-2</v>
+      </c>
+      <c r="AJ109" s="18">
+        <f t="shared" si="27"/>
         <v>-4.9000000000000377E-2</v>
       </c>
-      <c r="AJ104" s="18">
-        <f>AB90-($AE6+$AF6)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AK104" s="18">
-        <f>AC90-($AE6+$AF6)/2</f>
-        <v>-5.0000000000000711E-2</v>
-      </c>
-      <c r="AL104" s="18">
-        <f>AD90-($AE6+$AF6)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AM104" s="18">
-        <f>AE90-($AE6+$AF6)/2</f>
-        <v>-5.0000000000000711E-2</v>
-      </c>
-      <c r="AN104" s="18">
-        <f>AF90-($AE6+$AF6)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AO104" s="4">
-        <f t="shared" si="35"/>
-        <v>-4.9333333333333819E-2</v>
-      </c>
-      <c r="AP104" s="4">
-        <f t="shared" si="36"/>
-        <v>4.7140452079118912E-4</v>
-      </c>
-      <c r="AQ104" s="4">
-        <f t="shared" si="37"/>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AR104" s="4">
-        <f t="shared" si="38"/>
-        <v>-5.0000000000000711E-2</v>
-      </c>
-      <c r="AS104" s="19">
-        <f t="shared" si="20"/>
-        <v>1.000000000000334E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="B105" s="18">
-        <f>B91-($W7+$X7)/2</f>
-        <v>-2.8999999999999915E-2</v>
-      </c>
-      <c r="C105" s="18">
-        <f>C91-($W7+$X7)/2</f>
-        <v>-2.3000000000000576E-2</v>
-      </c>
-      <c r="D105" s="18">
-        <f>D91-($W7+$X7)/2</f>
-        <v>-3.6000000000000476E-2</v>
-      </c>
-      <c r="E105" s="18">
-        <f>E91-($W7+$X7)/2</f>
-        <v>-2.5000000000000355E-2</v>
-      </c>
-      <c r="F105" s="18">
-        <f>F91-($W7+$X7)/2</f>
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="G105" s="18">
-        <f>G91-($W7+$X7)/2</f>
-        <v>-3.3999999999999808E-2</v>
-      </c>
-      <c r="H105" s="4">
-        <f t="shared" si="21"/>
-        <v>-3.116666666666686E-2</v>
-      </c>
-      <c r="I105" s="4">
-        <f t="shared" si="22"/>
-        <v>6.0392236439976892E-3</v>
-      </c>
-      <c r="J105" s="4">
-        <f t="shared" si="23"/>
-        <v>-2.3000000000000576E-2</v>
-      </c>
-      <c r="K105" s="4">
-        <f t="shared" si="24"/>
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="L105" s="19">
-        <f t="shared" si="25"/>
-        <v>1.699999999999946E-2</v>
-      </c>
-      <c r="M105" s="18">
-        <f>M91-($Y7+$Z7)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="N105" s="18">
-        <f>N91-($Y7+$Z7)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="O105" s="18">
-        <f>O91-($Y7+$Z7)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="P105" s="18">
-        <f>P91-($Y7+$Z7)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="Q105" s="18">
-        <f>Q91-($Y7+$Z7)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="R105" s="18">
-        <f>R91-($Y7+$Z7)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="S105" s="4">
-        <f t="shared" si="26"/>
-        <v>-4.9166666666666213E-2</v>
-      </c>
-      <c r="T105" s="4">
-        <f t="shared" si="27"/>
-        <v>3.7267799625008945E-4</v>
-      </c>
-      <c r="U105" s="4">
-        <f t="shared" si="28"/>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="V105" s="4">
-        <f t="shared" si="29"/>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="W105" s="19">
-        <f t="shared" si="19"/>
-        <v>1.000000000000334E-3</v>
-      </c>
-      <c r="X105" s="18">
-        <f>T91-($AC7+$AD7)/2</f>
-        <v>-3.700000000000081E-2</v>
-      </c>
-      <c r="Y105" s="18">
-        <f>U91-($AC7+$AD7)/2</f>
-        <v>-3.1000000000000583E-2</v>
-      </c>
-      <c r="Z105" s="18">
-        <f>V91-($AC7+$AD7)/2</f>
-        <v>-4.1000000000000369E-2</v>
-      </c>
-      <c r="AA105" s="18">
-        <f>W91-($AC7+$AD7)/2</f>
-        <v>-3.3000000000000362E-2</v>
-      </c>
-      <c r="AB105" s="18">
-        <f>X91-($AC7+$AD7)/2</f>
-        <v>-4.1000000000000369E-2</v>
-      </c>
-      <c r="AC105" s="18">
-        <f>Y91-($AC7+$AD7)/2</f>
-        <v>-3.4000000000000696E-2</v>
-      </c>
-      <c r="AD105" s="4">
-        <f t="shared" si="30"/>
-        <v>-3.6166666666667201E-2</v>
-      </c>
-      <c r="AE105" s="4">
-        <f t="shared" si="31"/>
-        <v>3.847798793538337E-3</v>
-      </c>
-      <c r="AF105" s="4">
-        <f t="shared" si="32"/>
-        <v>-3.1000000000000583E-2</v>
-      </c>
-      <c r="AG105" s="4">
-        <f t="shared" si="33"/>
-        <v>-4.1000000000000369E-2</v>
-      </c>
-      <c r="AH105" s="19">
-        <f t="shared" si="34"/>
-        <v>9.9999999999997868E-3</v>
-      </c>
-      <c r="AI105" s="18">
-        <f>AA91-($AE7+$AF7)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AJ105" s="18">
-        <f>AB91-($AE7+$AF7)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AK105" s="18">
-        <f>AC91-($AE7+$AF7)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AL105" s="18">
-        <f>AD91-($AE7+$AF7)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AM105" s="18">
-        <f>AE91-($AE7+$AF7)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AN105" s="18">
-        <f>AF91-($AE7+$AF7)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AO105" s="4">
-        <f t="shared" si="35"/>
-        <v>-4.9500000000000099E-2</v>
-      </c>
-      <c r="AP105" s="4">
-        <f t="shared" si="36"/>
-        <v>4.9999999999972289E-4</v>
-      </c>
-      <c r="AQ105" s="4">
-        <f t="shared" si="37"/>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AR105" s="4">
-        <f t="shared" si="38"/>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AS105" s="19">
-        <f t="shared" si="20"/>
-        <v>9.9999999999944578E-4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="B106" s="18">
-        <f>B92-($W8+$X8)/2</f>
-        <v>-3.3999999999999808E-2</v>
-      </c>
-      <c r="C106" s="18">
-        <f>C92-($W8+$X8)/2</f>
-        <v>-2.5000000000000355E-2</v>
-      </c>
-      <c r="D106" s="18">
-        <f>D92-($W8+$X8)/2</f>
-        <v>-3.5000000000000142E-2</v>
-      </c>
-      <c r="E106" s="18">
-        <f>E92-($W8+$X8)/2</f>
-        <v>-2.7999999999999581E-2</v>
-      </c>
-      <c r="F106" s="18">
-        <f>F92-($W8+$X8)/2</f>
-        <v>-4.8000000000000043E-2</v>
-      </c>
-      <c r="G106" s="18">
-        <f>G92-($W8+$X8)/2</f>
-        <v>-3.2000000000000028E-2</v>
-      </c>
-      <c r="H106" s="4">
-        <f t="shared" si="21"/>
-        <v>-3.3666666666666657E-2</v>
-      </c>
-      <c r="I106" s="4">
-        <f t="shared" si="22"/>
-        <v>7.2724747430904686E-3</v>
-      </c>
-      <c r="J106" s="4">
-        <f t="shared" si="23"/>
-        <v>-2.5000000000000355E-2</v>
-      </c>
-      <c r="K106" s="4">
-        <f t="shared" si="24"/>
-        <v>-4.8000000000000043E-2</v>
-      </c>
-      <c r="L106" s="19">
-        <f t="shared" si="25"/>
-        <v>2.2999999999999687E-2</v>
-      </c>
-      <c r="M106" s="18">
-        <f>M92-($Y8+$Z8)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="N106" s="18">
-        <f>N92-($Y8+$Z8)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="O106" s="18">
-        <f>O92-($Y8+$Z8)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="P106" s="18">
-        <f>P92-($Y8+$Z8)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="Q106" s="18">
-        <f>Q92-($Y8+$Z8)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="R106" s="18">
-        <f>R92-($Y8+$Z8)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="S106" s="4">
-        <f t="shared" si="26"/>
-        <v>-4.9499999999999655E-2</v>
-      </c>
-      <c r="T106" s="4">
-        <f t="shared" si="27"/>
-        <v>5.0000000000016698E-4</v>
-      </c>
-      <c r="U106" s="4">
-        <f t="shared" si="28"/>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="V106" s="4">
-        <f t="shared" si="29"/>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="W106" s="19">
-        <f t="shared" si="19"/>
-        <v>1.000000000000334E-3</v>
-      </c>
-      <c r="X106" s="18">
-        <f>T92-($AC8+$AD8)/2</f>
-        <v>-2.6999999999999247E-2</v>
-      </c>
-      <c r="Y106" s="18">
-        <f>U92-($AC8+$AD8)/2</f>
-        <v>-2.3999999999999133E-2</v>
-      </c>
-      <c r="Z106" s="18">
-        <f>V92-($AC8+$AD8)/2</f>
-        <v>-3.0999999999999694E-2</v>
-      </c>
-      <c r="AA106" s="18">
-        <f>W92-($AC8+$AD8)/2</f>
-        <v>-2.2999999999999687E-2</v>
-      </c>
-      <c r="AB106" s="18">
-        <f>X92-($AC8+$AD8)/2</f>
-        <v>-3.0999999999999694E-2</v>
-      </c>
-      <c r="AC106" s="18">
-        <f>Y92-($AC8+$AD8)/2</f>
-        <v>-3.8999999999999702E-2</v>
-      </c>
-      <c r="AD106" s="4">
-        <f t="shared" si="30"/>
-        <v>-2.9166666666666192E-2</v>
-      </c>
-      <c r="AE106" s="4">
-        <f t="shared" si="31"/>
-        <v>5.3670807293683303E-3</v>
-      </c>
-      <c r="AF106" s="4">
-        <f t="shared" si="32"/>
-        <v>-2.2999999999999687E-2</v>
-      </c>
-      <c r="AG106" s="4">
-        <f t="shared" si="33"/>
-        <v>-3.8999999999999702E-2</v>
-      </c>
-      <c r="AH106" s="19">
-        <f t="shared" si="34"/>
-        <v>1.6000000000000014E-2</v>
-      </c>
-      <c r="AI106" s="18">
-        <f>AA92-($AE8+$AF8)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AJ106" s="18">
-        <f>AB92-($AE8+$AF8)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AK106" s="18">
-        <f>AC92-($AE8+$AF8)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AL106" s="18">
-        <f>AD92-($AE8+$AF8)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AM106" s="18">
-        <f>AE92-($AE8+$AF8)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AN106" s="18">
-        <f>AF92-($AE8+$AF8)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AO106" s="4">
-        <f t="shared" si="35"/>
-        <v>-4.9666666666666671E-2</v>
-      </c>
-      <c r="AP106" s="4">
-        <f t="shared" si="36"/>
-        <v>4.714045207907704E-4</v>
-      </c>
-      <c r="AQ106" s="4">
-        <f t="shared" si="37"/>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AR106" s="4">
-        <f t="shared" si="38"/>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AS106" s="19">
-        <f t="shared" si="20"/>
-        <v>9.9999999999944578E-4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="B107" s="18">
-        <f>B93-($W9+$X9)/2</f>
-        <v>-3.8999999999999702E-2</v>
-      </c>
-      <c r="C107" s="18">
-        <f>C93-($W9+$X9)/2</f>
-        <v>-3.3999999999999808E-2</v>
-      </c>
-      <c r="D107" s="18">
-        <f>D93-($W9+$X9)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="E107" s="18">
-        <f>E93-($W9+$X9)/2</f>
-        <v>-3.5000000000000142E-2</v>
-      </c>
-      <c r="F107" s="18">
-        <f>F93-($W9+$X9)/2</f>
-        <v>-4.4999999999999929E-2</v>
-      </c>
-      <c r="G107" s="18">
-        <f>G93-($W9+$X9)/2</f>
-        <v>-3.5000000000000142E-2</v>
-      </c>
-      <c r="H107" s="4">
-        <f t="shared" si="21"/>
-        <v>-3.9499999999999869E-2</v>
-      </c>
-      <c r="I107" s="4">
-        <f t="shared" si="22"/>
-        <v>5.6494837522259407E-3</v>
-      </c>
-      <c r="J107" s="4">
-        <f t="shared" si="23"/>
-        <v>-3.3999999999999808E-2</v>
-      </c>
-      <c r="K107" s="4">
-        <f t="shared" si="24"/>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="L107" s="19">
-        <f t="shared" si="25"/>
-        <v>1.499999999999968E-2</v>
-      </c>
-      <c r="M107" s="18">
-        <f>M93-($Y9+$Z9)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="N107" s="18">
-        <f>N93-($Y9+$Z9)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="O107" s="18">
-        <f>O93-($Y9+$Z9)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="P107" s="18">
-        <f>P93-($Y9+$Z9)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="Q107" s="18">
-        <f>Q93-($Y9+$Z9)/2</f>
-        <v>-5.0000000000000711E-2</v>
-      </c>
-      <c r="R107" s="18">
-        <f>R93-($Y9+$Z9)/2</f>
-        <v>-5.0000000000000711E-2</v>
-      </c>
-      <c r="S107" s="4">
-        <f t="shared" si="26"/>
-        <v>-4.9333333333333819E-2</v>
-      </c>
-      <c r="T107" s="4">
-        <f t="shared" si="27"/>
-        <v>4.7140452079118912E-4</v>
-      </c>
-      <c r="U107" s="4">
+      <c r="AK109" s="18">
         <f t="shared" si="28"/>
         <v>-4.9000000000000377E-2</v>
       </c>
-      <c r="V107" s="4">
+      <c r="AL109" s="18">
         <f t="shared" si="29"/>
-        <v>-5.0000000000000711E-2</v>
-      </c>
-      <c r="W107" s="19">
-        <f t="shared" si="19"/>
-        <v>1.000000000000334E-3</v>
-      </c>
-      <c r="X107" s="18">
-        <f>T93-($AC9+$AD9)/2</f>
-        <v>-2.7000000000000135E-2</v>
-      </c>
-      <c r="Y107" s="18">
-        <f>U93-($AC9+$AD9)/2</f>
-        <v>-2.8000000000000469E-2</v>
-      </c>
-      <c r="Z107" s="18">
-        <f>V93-($AC9+$AD9)/2</f>
-        <v>-3.8000000000000256E-2</v>
-      </c>
-      <c r="AA107" s="18">
-        <f>W93-($AC9+$AD9)/2</f>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AM109" s="18">
+        <f t="shared" si="30"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AN109" s="18">
+        <f t="shared" si="31"/>
+        <v>-5.0000000000000266E-2</v>
+      </c>
+      <c r="AO109" s="4">
+        <f t="shared" si="56"/>
+        <v>-4.9333333333333673E-2</v>
+      </c>
+      <c r="AP109" s="4">
+        <f t="shared" si="57"/>
+        <v>4.7140452079097976E-4</v>
+      </c>
+      <c r="AQ109" s="4">
+        <f t="shared" si="58"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AR109" s="4">
+        <f t="shared" si="59"/>
+        <v>-5.0000000000000266E-2</v>
+      </c>
+      <c r="AS109" s="19">
+        <f t="shared" si="41"/>
+        <v>9.9999999999988987E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B110" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.5000000000000355E-2</v>
+      </c>
+      <c r="C110" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="D110" s="18">
+        <f t="shared" si="32"/>
         <v>-3.0000000000000249E-2</v>
       </c>
-      <c r="AB107" s="18">
-        <f>X93-($AC9+$AD9)/2</f>
-        <v>-4.3000000000000149E-2</v>
-      </c>
-      <c r="AC107" s="18">
-        <f>Y93-($AC9+$AD9)/2</f>
-        <v>-7.6000000000000512E-2</v>
-      </c>
-      <c r="AD107" s="4">
+      <c r="E110" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.1000000000000352E-2</v>
+      </c>
+      <c r="F110" s="18">
+        <f t="shared" si="32"/>
+        <v>-4.6000000000000263E-2</v>
+      </c>
+      <c r="G110" s="18">
+        <f t="shared" si="32"/>
+        <v>-2.8000000000000025E-2</v>
+      </c>
+      <c r="H110" s="4">
+        <f t="shared" si="42"/>
+        <v>-2.8333333333333544E-2</v>
+      </c>
+      <c r="I110" s="4">
+        <f t="shared" si="43"/>
+        <v>8.6538366571648033E-3</v>
+      </c>
+      <c r="J110" s="4">
+        <f t="shared" si="44"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="K110" s="4">
+        <f t="shared" si="45"/>
+        <v>-4.6000000000000263E-2</v>
+      </c>
+      <c r="L110" s="19">
+        <f t="shared" si="46"/>
+        <v>2.6000000000000245E-2</v>
+      </c>
+      <c r="M110" s="18">
+        <f t="shared" si="24"/>
+        <v>-4.8999999999999932E-2</v>
+      </c>
+      <c r="N110" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="O110" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="P110" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999932E-2</v>
+      </c>
+      <c r="Q110" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999932E-2</v>
+      </c>
+      <c r="R110" s="18">
+        <f t="shared" si="33"/>
+        <v>-4.8999999999999932E-2</v>
+      </c>
+      <c r="S110" s="4">
+        <f t="shared" si="47"/>
+        <v>-4.9333333333333229E-2</v>
+      </c>
+      <c r="T110" s="4">
+        <f t="shared" si="48"/>
+        <v>4.7140452079097981E-4</v>
+      </c>
+      <c r="U110" s="4">
+        <f t="shared" si="49"/>
+        <v>-4.8999999999999932E-2</v>
+      </c>
+      <c r="V110" s="4">
+        <f t="shared" si="50"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="W110" s="19">
+        <f t="shared" si="34"/>
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="X110" s="18">
+        <f t="shared" si="35"/>
+        <v>-4.2999999999999705E-2</v>
+      </c>
+      <c r="Y110" s="18">
+        <f t="shared" si="36"/>
+        <v>-4.4999999999999485E-2</v>
+      </c>
+      <c r="Z110" s="18">
+        <f t="shared" si="37"/>
+        <v>-6.0999999999999499E-2</v>
+      </c>
+      <c r="AA110" s="18">
+        <f t="shared" si="38"/>
+        <v>-5.0999999999999712E-2</v>
+      </c>
+      <c r="AB110" s="18">
+        <f t="shared" si="39"/>
+        <v>-7.5999999999999623E-2</v>
+      </c>
+      <c r="AC110" s="18">
+        <f t="shared" si="40"/>
+        <v>-4.7999999999999599E-2</v>
+      </c>
+      <c r="AD110" s="4">
+        <f t="shared" si="51"/>
+        <v>-5.3999999999999604E-2</v>
+      </c>
+      <c r="AE110" s="4">
+        <f t="shared" si="52"/>
+        <v>1.1401754250991367E-2</v>
+      </c>
+      <c r="AF110" s="4">
+        <f t="shared" si="53"/>
+        <v>-4.2999999999999705E-2</v>
+      </c>
+      <c r="AG110" s="4">
+        <f t="shared" si="54"/>
+        <v>-7.5999999999999623E-2</v>
+      </c>
+      <c r="AH110" s="19">
+        <f t="shared" si="55"/>
+        <v>3.2999999999999918E-2</v>
+      </c>
+      <c r="AI110" s="18">
+        <f t="shared" si="26"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AJ110" s="18">
+        <f t="shared" si="27"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AK110" s="18">
+        <f t="shared" si="28"/>
+        <v>-5.0000000000000266E-2</v>
+      </c>
+      <c r="AL110" s="18">
+        <f t="shared" si="29"/>
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AM110" s="18">
         <f t="shared" si="30"/>
-        <v>-4.0333333333333631E-2</v>
-      </c>
-      <c r="AE107" s="4">
+        <v>-4.9000000000000377E-2</v>
+      </c>
+      <c r="AN110" s="18">
         <f t="shared" si="31"/>
-        <v>1.6937794687883409E-2</v>
-      </c>
-      <c r="AF107" s="4">
-        <f t="shared" si="32"/>
-        <v>-2.7000000000000135E-2</v>
-      </c>
-      <c r="AG107" s="4">
-        <f t="shared" si="33"/>
-        <v>-7.6000000000000512E-2</v>
-      </c>
-      <c r="AH107" s="19">
-        <f t="shared" si="34"/>
-        <v>4.9000000000000377E-2</v>
-      </c>
-      <c r="AI107" s="18">
-        <f>AA93-($AE9+$AF9)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AJ107" s="18">
-        <f>AB93-($AE9+$AF9)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AK107" s="18">
-        <f>AC93-($AE9+$AF9)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AL107" s="18">
-        <f>AD93-($AE9+$AF9)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="AM107" s="18">
-        <f>AE93-($AE9+$AF9)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="AN107" s="18">
-        <f>AF93-($AE9+$AF9)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AO107" s="4">
-        <f t="shared" si="35"/>
-        <v>-4.966666666666638E-2</v>
-      </c>
-      <c r="AP107" s="4">
-        <f t="shared" si="36"/>
-        <v>4.7140452079118912E-4</v>
-      </c>
-      <c r="AQ107" s="4">
-        <f t="shared" si="37"/>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="AR107" s="4">
-        <f t="shared" si="38"/>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AS107" s="19">
-        <f t="shared" si="20"/>
-        <v>1.000000000000334E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="B108" s="18">
-        <f>B94-($W10+$X10)/2</f>
-        <v>-2.9000000000000803E-2</v>
-      </c>
-      <c r="C108" s="18">
-        <f>C94-($W10+$X10)/2</f>
-        <v>-1.9000000000000128E-2</v>
-      </c>
-      <c r="D108" s="18">
-        <f>D94-($W10+$X10)/2</f>
-        <v>-3.1000000000000583E-2</v>
-      </c>
-      <c r="E108" s="18">
-        <f>E94-($W10+$X10)/2</f>
-        <v>-2.6000000000000689E-2</v>
-      </c>
-      <c r="F108" s="18">
-        <f>F94-($W10+$X10)/2</f>
-        <v>-4.0000000000000924E-2</v>
-      </c>
-      <c r="G108" s="18">
-        <f>G94-($W10+$X10)/2</f>
-        <v>-2.7000000000000135E-2</v>
-      </c>
-      <c r="H108" s="4">
-        <f t="shared" si="21"/>
-        <v>-2.8666666666667211E-2</v>
-      </c>
-      <c r="I108" s="4">
-        <f t="shared" si="22"/>
-        <v>6.2893207547046357E-3</v>
-      </c>
-      <c r="J108" s="4">
-        <f t="shared" si="23"/>
-        <v>-1.9000000000000128E-2</v>
-      </c>
-      <c r="K108" s="4">
-        <f t="shared" si="24"/>
-        <v>-4.0000000000000924E-2</v>
-      </c>
-      <c r="L108" s="19">
-        <f t="shared" si="25"/>
-        <v>2.1000000000000796E-2</v>
-      </c>
-      <c r="M108" s="18">
-        <f>M94-($Y10+$Z10)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="N108" s="18">
-        <f>N94-($Y10+$Z10)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="O108" s="18">
-        <f>O94-($Y10+$Z10)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="P108" s="18">
-        <f>P94-($Y10+$Z10)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="Q108" s="18">
-        <f>Q94-($Y10+$Z10)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="R108" s="18">
-        <f>R94-($Y10+$Z10)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="S108" s="4">
-        <f t="shared" si="26"/>
-        <v>-4.9333333333333527E-2</v>
-      </c>
-      <c r="T108" s="4">
-        <f t="shared" si="27"/>
-        <v>4.7140452079077045E-4</v>
-      </c>
-      <c r="U108" s="4">
-        <f t="shared" si="28"/>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="V108" s="4">
-        <f t="shared" si="29"/>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="W108" s="19">
-        <f t="shared" si="19"/>
-        <v>9.9999999999944578E-4</v>
-      </c>
-      <c r="X108" s="18">
-        <f>T94-($AC10+$AD10)/2</f>
-        <v>-3.5999999999999588E-2</v>
-      </c>
-      <c r="Y108" s="18">
-        <f>U94-($AC10+$AD10)/2</f>
-        <v>-2.7000000000000135E-2</v>
-      </c>
-      <c r="Z108" s="18">
-        <f>V94-($AC10+$AD10)/2</f>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="AA108" s="18">
-        <f>W94-($AC10+$AD10)/2</f>
-        <v>-2.7000000000000135E-2</v>
-      </c>
-      <c r="AB108" s="18">
-        <f>X94-($AC10+$AD10)/2</f>
-        <v>-4.1000000000000369E-2</v>
-      </c>
-      <c r="AC108" s="18">
-        <f>Y94-($AC10+$AD10)/2</f>
-        <v>-4.1000000000000369E-2</v>
-      </c>
-      <c r="AD108" s="4">
-        <f t="shared" si="30"/>
-        <v>-3.5333333333333439E-2</v>
-      </c>
-      <c r="AE108" s="4">
-        <f t="shared" si="31"/>
-        <v>6.1282587702834726E-3</v>
-      </c>
-      <c r="AF108" s="4">
-        <f t="shared" si="32"/>
-        <v>-2.7000000000000135E-2</v>
-      </c>
-      <c r="AG108" s="4">
-        <f t="shared" si="33"/>
-        <v>-4.1000000000000369E-2</v>
-      </c>
-      <c r="AH108" s="19">
-        <f t="shared" si="34"/>
-        <v>1.4000000000000234E-2</v>
-      </c>
-      <c r="AI108" s="18">
-        <f>AA94-($AE10+$AF10)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="AJ108" s="18">
-        <f>AB94-($AE10+$AF10)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AK108" s="18">
-        <f>AC94-($AE10+$AF10)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="AL108" s="18">
-        <f>AD94-($AE10+$AF10)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AM108" s="18">
-        <f>AE94-($AE10+$AF10)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AN108" s="18">
-        <f>AF94-($AE10+$AF10)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="AO108" s="4">
-        <f t="shared" si="35"/>
-        <v>-4.9499999999999655E-2</v>
-      </c>
-      <c r="AP108" s="4">
-        <f t="shared" si="36"/>
-        <v>5.0000000000016698E-4</v>
-      </c>
-      <c r="AQ108" s="4">
-        <f t="shared" si="37"/>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="AR108" s="4">
-        <f t="shared" si="38"/>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="AS108" s="19">
-        <f t="shared" si="20"/>
-        <v>1.000000000000334E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="B109" s="18">
-        <f>B95-($W11+$X11)/2</f>
-        <v>-4.2999999999999261E-2</v>
-      </c>
-      <c r="C109" s="18">
-        <f>C95-($W11+$X11)/2</f>
-        <v>-2.5999999999999801E-2</v>
-      </c>
-      <c r="D109" s="18">
-        <f>D95-($W11+$X11)/2</f>
-        <v>-3.9999999999999147E-2</v>
-      </c>
-      <c r="E109" s="18">
-        <f>E95-($W11+$X11)/2</f>
-        <v>-3.7999999999999368E-2</v>
-      </c>
-      <c r="F109" s="18">
-        <f>F95-($W11+$X11)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="G109" s="18">
-        <f>G95-($W11+$X11)/2</f>
-        <v>-3.3999999999999808E-2</v>
-      </c>
-      <c r="H109" s="4">
-        <f t="shared" si="21"/>
-        <v>-3.8499999999999535E-2</v>
-      </c>
-      <c r="I109" s="4">
-        <f t="shared" si="22"/>
-        <v>7.4330343736591833E-3</v>
-      </c>
-      <c r="J109" s="4">
-        <f t="shared" si="23"/>
-        <v>-2.5999999999999801E-2</v>
-      </c>
-      <c r="K109" s="4">
-        <f t="shared" si="24"/>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="L109" s="19">
-        <f t="shared" si="25"/>
-        <v>2.4000000000000021E-2</v>
-      </c>
-      <c r="M109" s="18">
-        <f>M95-($Y11+$Z11)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="N109" s="18">
-        <f>N95-($Y11+$Z11)/2</f>
-        <v>-4.8999999999999932E-2</v>
-      </c>
-      <c r="O109" s="18">
-        <f>O95-($Y11+$Z11)/2</f>
-        <v>-4.8999999999999932E-2</v>
-      </c>
-      <c r="P109" s="18">
-        <f>P95-($Y11+$Z11)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="Q109" s="18">
-        <f>Q95-($Y11+$Z11)/2</f>
-        <v>-4.8999999999999932E-2</v>
-      </c>
-      <c r="R109" s="18">
-        <f>R95-($Y11+$Z11)/2</f>
-        <v>-4.8999999999999932E-2</v>
-      </c>
-      <c r="S109" s="4">
-        <f t="shared" si="26"/>
-        <v>-4.9333333333333229E-2</v>
-      </c>
-      <c r="T109" s="4">
-        <f t="shared" si="27"/>
-        <v>4.7140452079097981E-4</v>
-      </c>
-      <c r="U109" s="4">
-        <f t="shared" si="28"/>
-        <v>-4.8999999999999932E-2</v>
-      </c>
-      <c r="V109" s="4">
-        <f t="shared" si="29"/>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="W109" s="19">
-        <f t="shared" si="19"/>
-        <v>9.9999999999988987E-4</v>
-      </c>
-      <c r="X109" s="18">
-        <f>T95-($AC11+$AD11)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="Y109" s="18">
-        <f>U95-($AC11+$AD11)/2</f>
-        <v>-4.3000000000000149E-2</v>
-      </c>
-      <c r="Z109" s="18">
-        <f>V95-($AC11+$AD11)/2</f>
-        <v>-5.1999999999999602E-2</v>
-      </c>
-      <c r="AA109" s="18">
-        <f>W95-($AC11+$AD11)/2</f>
-        <v>-5.1000000000000156E-2</v>
-      </c>
-      <c r="AB109" s="18">
-        <f>X95-($AC11+$AD11)/2</f>
-        <v>-5.4999999999999716E-2</v>
-      </c>
-      <c r="AC109" s="18">
-        <f>Y95-($AC11+$AD11)/2</f>
-        <v>-4.8999999999999488E-2</v>
-      </c>
-      <c r="AD109" s="4">
-        <f t="shared" si="30"/>
-        <v>-4.9833333333333098E-2</v>
-      </c>
-      <c r="AE109" s="4">
-        <f t="shared" si="31"/>
-        <v>3.6704525909241016E-3</v>
-      </c>
-      <c r="AF109" s="4">
+      <c r="AO110" s="4">
+        <f t="shared" si="56"/>
+        <v>-4.7666666666666968E-2</v>
+      </c>
+      <c r="AP110" s="4">
+        <f t="shared" si="57"/>
+        <v>3.4480268109296475E-3</v>
+      </c>
+      <c r="AQ110" s="4">
+        <f t="shared" si="58"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="AR110" s="4">
+        <f t="shared" si="59"/>
+        <v>-5.0000000000000266E-2</v>
+      </c>
+      <c r="AS110" s="19">
+        <f t="shared" si="41"/>
+        <v>1.0000000000000231E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B111" s="18">
         <f t="shared" si="32"/>
         <v>-4.3000000000000149E-2</v>
       </c>
-      <c r="AG109" s="4">
-        <f t="shared" si="33"/>
-        <v>-5.4999999999999716E-2</v>
-      </c>
-      <c r="AH109" s="19">
-        <f t="shared" si="34"/>
-        <v>1.1999999999999567E-2</v>
-      </c>
-      <c r="AI109" s="18">
-        <f>AA95-($AE11+$AF11)/2</f>
-        <v>-5.0000000000000266E-2</v>
-      </c>
-      <c r="AJ109" s="18">
-        <f>AB95-($AE11+$AF11)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AK109" s="18">
-        <f>AC95-($AE11+$AF11)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AL109" s="18">
-        <f>AD95-($AE11+$AF11)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AM109" s="18">
-        <f>AE95-($AE11+$AF11)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AN109" s="18">
-        <f>AF95-($AE11+$AF11)/2</f>
-        <v>-5.0000000000000266E-2</v>
-      </c>
-      <c r="AO109" s="4">
-        <f t="shared" si="35"/>
-        <v>-4.9333333333333673E-2</v>
-      </c>
-      <c r="AP109" s="4">
-        <f t="shared" si="36"/>
-        <v>4.7140452079097976E-4</v>
-      </c>
-      <c r="AQ109" s="4">
-        <f t="shared" si="37"/>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AR109" s="4">
-        <f t="shared" si="38"/>
-        <v>-5.0000000000000266E-2</v>
-      </c>
-      <c r="AS109" s="19">
-        <f t="shared" si="20"/>
-        <v>9.9999999999988987E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="B110" s="18">
-        <f>B96-($W12+$X12)/2</f>
-        <v>-2.5000000000000355E-2</v>
-      </c>
-      <c r="C110" s="18">
-        <f>C96-($W12+$X12)/2</f>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="D110" s="18">
-        <f>D96-($W12+$X12)/2</f>
-        <v>-3.0000000000000249E-2</v>
-      </c>
-      <c r="E110" s="18">
-        <f>E96-($W12+$X12)/2</f>
-        <v>-2.1000000000000352E-2</v>
-      </c>
-      <c r="F110" s="18">
-        <f>F96-($W12+$X12)/2</f>
-        <v>-4.6000000000000263E-2</v>
-      </c>
-      <c r="G110" s="18">
-        <f>G96-($W12+$X12)/2</f>
-        <v>-2.8000000000000025E-2</v>
-      </c>
-      <c r="H110" s="4">
-        <f t="shared" si="21"/>
-        <v>-2.8333333333333544E-2</v>
-      </c>
-      <c r="I110" s="4">
-        <f t="shared" si="22"/>
-        <v>8.6538366571648033E-3</v>
-      </c>
-      <c r="J110" s="4">
-        <f t="shared" si="23"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="K110" s="4">
-        <f t="shared" si="24"/>
-        <v>-4.6000000000000263E-2</v>
-      </c>
-      <c r="L110" s="19">
-        <f t="shared" si="25"/>
-        <v>2.6000000000000245E-2</v>
-      </c>
-      <c r="M110" s="18">
-        <f>M96-($Y12+$Z12)/2</f>
-        <v>-4.8999999999999932E-2</v>
-      </c>
-      <c r="N110" s="18">
-        <f>N96-($Y12+$Z12)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="O110" s="18">
-        <f>O96-($Y12+$Z12)/2</f>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="P110" s="18">
-        <f>P96-($Y12+$Z12)/2</f>
-        <v>-4.8999999999999932E-2</v>
-      </c>
-      <c r="Q110" s="18">
-        <f>Q96-($Y12+$Z12)/2</f>
-        <v>-4.8999999999999932E-2</v>
-      </c>
-      <c r="R110" s="18">
-        <f>R96-($Y12+$Z12)/2</f>
-        <v>-4.8999999999999932E-2</v>
-      </c>
-      <c r="S110" s="4">
-        <f t="shared" si="26"/>
-        <v>-4.9333333333333229E-2</v>
-      </c>
-      <c r="T110" s="4">
-        <f t="shared" si="27"/>
-        <v>4.7140452079097981E-4</v>
-      </c>
-      <c r="U110" s="4">
-        <f t="shared" si="28"/>
-        <v>-4.8999999999999932E-2</v>
-      </c>
-      <c r="V110" s="4">
-        <f t="shared" si="29"/>
-        <v>-4.9999999999999822E-2</v>
-      </c>
-      <c r="W110" s="19">
-        <f t="shared" si="19"/>
-        <v>9.9999999999988987E-4</v>
-      </c>
-      <c r="X110" s="18">
-        <f>T96-($AC12+$AD12)/2</f>
-        <v>-4.2999999999999705E-2</v>
-      </c>
-      <c r="Y110" s="18">
-        <f>U96-($AC12+$AD12)/2</f>
-        <v>-4.4999999999999485E-2</v>
-      </c>
-      <c r="Z110" s="18">
-        <f>V96-($AC12+$AD12)/2</f>
-        <v>-6.0999999999999499E-2</v>
-      </c>
-      <c r="AA110" s="18">
-        <f>W96-($AC12+$AD12)/2</f>
-        <v>-5.0999999999999712E-2</v>
-      </c>
-      <c r="AB110" s="18">
-        <f>X96-($AC12+$AD12)/2</f>
-        <v>-7.5999999999999623E-2</v>
-      </c>
-      <c r="AC110" s="18">
-        <f>Y96-($AC12+$AD12)/2</f>
-        <v>-4.7999999999999599E-2</v>
-      </c>
-      <c r="AD110" s="4">
-        <f t="shared" si="30"/>
-        <v>-5.3999999999999604E-2</v>
-      </c>
-      <c r="AE110" s="4">
-        <f t="shared" si="31"/>
-        <v>1.1401754250991367E-2</v>
-      </c>
-      <c r="AF110" s="4">
+      <c r="C111" s="18">
         <f t="shared" si="32"/>
-        <v>-4.2999999999999705E-2</v>
-      </c>
-      <c r="AG110" s="4">
-        <f t="shared" si="33"/>
-        <v>-7.5999999999999623E-2</v>
-      </c>
-      <c r="AH110" s="19">
-        <f t="shared" si="34"/>
-        <v>3.2999999999999918E-2</v>
-      </c>
-      <c r="AI110" s="18">
-        <f>AA96-($AE12+$AF12)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AJ110" s="18">
-        <f>AB96-($AE12+$AF12)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AK110" s="18">
-        <f>AC96-($AE12+$AF12)/2</f>
-        <v>-5.0000000000000266E-2</v>
-      </c>
-      <c r="AL110" s="18">
-        <f>AD96-($AE12+$AF12)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AM110" s="18">
-        <f>AE96-($AE12+$AF12)/2</f>
-        <v>-4.9000000000000377E-2</v>
-      </c>
-      <c r="AN110" s="18">
-        <f>AF96-($AE12+$AF12)/2</f>
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="AO110" s="4">
-        <f t="shared" si="35"/>
-        <v>-4.7666666666666968E-2</v>
-      </c>
-      <c r="AP110" s="4">
-        <f t="shared" si="36"/>
-        <v>3.4480268109296475E-3</v>
-      </c>
-      <c r="AQ110" s="4">
-        <f t="shared" si="37"/>
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="AR110" s="4">
-        <f t="shared" si="38"/>
-        <v>-5.0000000000000266E-2</v>
-      </c>
-      <c r="AS110" s="19">
-        <f t="shared" si="20"/>
-        <v>1.0000000000000231E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="B111" s="18">
-        <f>B97-($W13+$X13)/2</f>
-        <v>-4.3000000000000149E-2</v>
-      </c>
-      <c r="C111" s="18">
-        <f>C97-($W13+$X13)/2</f>
         <v>-3.7999999999999812E-2</v>
       </c>
       <c r="D111" s="18">
-        <f>D97-($W13+$X13)/2</f>
+        <f t="shared" si="32"/>
         <v>-4.8000000000000043E-2</v>
       </c>
       <c r="E111" s="18">
-        <f>E97-($W13+$X13)/2</f>
+        <f t="shared" si="32"/>
         <v>-3.9000000000000146E-2</v>
       </c>
       <c r="F111" s="18">
-        <f>F97-($W13+$X13)/2</f>
+        <f t="shared" si="32"/>
         <v>-6.0999999999999943E-2</v>
       </c>
       <c r="G111" s="18">
-        <f>G97-($W13+$X13)/2</f>
+        <f t="shared" si="32"/>
         <v>-4.0999999999999925E-2</v>
       </c>
       <c r="H111" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="I111" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>7.8528126595931395E-3</v>
       </c>
       <c r="J111" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>-3.7999999999999812E-2</v>
       </c>
       <c r="K111" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="45"/>
         <v>-6.0999999999999943E-2</v>
       </c>
       <c r="L111" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="46"/>
         <v>2.3000000000000131E-2</v>
       </c>
       <c r="M111" s="18" t="s">
@@ -7540,47 +7545,47 @@
       <c r="U111" s="21"/>
       <c r="V111" s="21"/>
       <c r="X111" s="18">
-        <f>T97-($AC13+$AD13)/2</f>
+        <f t="shared" si="35"/>
         <v>-6.4000000000000501E-2</v>
       </c>
       <c r="Y111" s="18">
-        <f>U97-($AC13+$AD13)/2</f>
+        <f t="shared" si="36"/>
         <v>-5.200000000000049E-2</v>
       </c>
       <c r="Z111" s="18">
-        <f>V97-($AC13+$AD13)/2</f>
+        <f t="shared" si="37"/>
         <v>-6.1000000000000387E-2</v>
       </c>
       <c r="AA111" s="18">
-        <f>W97-($AC13+$AD13)/2</f>
+        <f t="shared" si="38"/>
         <v>-5.200000000000049E-2</v>
       </c>
       <c r="AB111" s="18">
-        <f>X97-($AC13+$AD13)/2</f>
+        <f t="shared" si="39"/>
         <v>-6.9000000000000394E-2</v>
       </c>
       <c r="AC111" s="18">
-        <f>Y97-($AC13+$AD13)/2</f>
+        <f t="shared" si="40"/>
         <v>-5.500000000000016E-2</v>
       </c>
       <c r="AD111" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>-5.8833333333333737E-2</v>
       </c>
       <c r="AE111" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="52"/>
         <v>6.3617782279974415E-3</v>
       </c>
       <c r="AF111" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="53"/>
         <v>-5.200000000000049E-2</v>
       </c>
       <c r="AG111" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>-6.9000000000000394E-2</v>
       </c>
       <c r="AH111" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="55"/>
         <v>1.6999999999999904E-2</v>
       </c>
       <c r="AI111" s="18" t="s">
@@ -7606,7 +7611,7 @@
       <c r="AQ111" s="21"/>
       <c r="AR111" s="21"/>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>28</v>
       </c>
@@ -7615,23 +7620,23 @@
         <v>-3.4500000000000065E-2</v>
       </c>
       <c r="C112" s="4">
-        <f t="shared" ref="C112:G112" si="39">AVERAGE(C102:C111)</f>
+        <f t="shared" ref="C112:G112" si="60">AVERAGE(C102:C111)</f>
         <v>-2.9399999999999961E-2</v>
       </c>
       <c r="D112" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>-3.7899999999999955E-2</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>-3.0500000000000062E-2</v>
       </c>
       <c r="F112" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>-4.5200000000000087E-2</v>
       </c>
       <c r="G112" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>-3.519999999999994E-2</v>
       </c>
       <c r="H112" s="4"/>
@@ -7643,23 +7648,23 @@
         <v>-4.940000000000002E-2</v>
       </c>
       <c r="N112" s="4">
-        <f t="shared" ref="N112:R112" si="40">AVERAGE(N101:N110)</f>
+        <f t="shared" ref="N112:R112" si="61">AVERAGE(N101:N110)</f>
         <v>-4.9299999999999899E-2</v>
       </c>
       <c r="O112" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>-4.9500000000000058E-2</v>
       </c>
       <c r="P112" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>-4.929999999999999E-2</v>
       </c>
       <c r="Q112" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>-4.9200000000000091E-2</v>
       </c>
       <c r="R112" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>-4.9300000000000122E-2</v>
       </c>
       <c r="S112" s="4"/>
@@ -7671,23 +7676,23 @@
         <v>-3.819999999999997E-2</v>
       </c>
       <c r="Y112" s="4">
-        <f t="shared" ref="Y112:AC112" si="41">AVERAGE(Y102:Y111)</f>
+        <f t="shared" ref="Y112:AC112" si="62">AVERAGE(Y102:Y111)</f>
         <v>-3.599999999999999E-2</v>
       </c>
       <c r="Z112" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>-4.4399999999999995E-2</v>
       </c>
       <c r="AA112" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>-3.6199999999999968E-2</v>
       </c>
       <c r="AB112" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>-4.8199999999999979E-2</v>
       </c>
       <c r="AC112" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>-4.4700000000000004E-2</v>
       </c>
       <c r="AD112" s="4"/>
@@ -7699,23 +7704,23 @@
         <v>-4.9599999999999908E-2</v>
       </c>
       <c r="AJ112" s="4">
-        <f t="shared" ref="AJ112:AN112" si="42">AVERAGE(AJ101:AJ110)</f>
+        <f t="shared" ref="AJ112:AN112" si="63">AVERAGE(AJ101:AJ110)</f>
         <v>-4.9399999999999979E-2</v>
       </c>
       <c r="AK112" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>-4.9600000000000088E-2</v>
       </c>
       <c r="AL112" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>-4.9399999999999979E-2</v>
       </c>
       <c r="AM112" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>-4.9299999999999941E-2</v>
       </c>
       <c r="AN112" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>-4.8499999999999988E-2</v>
       </c>
       <c r="AO112" s="4"/>
@@ -7723,7 +7728,7 @@
       <c r="AQ112" s="4"/>
       <c r="AR112" s="4"/>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>29</v>
       </c>
@@ -7732,23 +7737,23 @@
         <v>-6.3914004725096505E-3</v>
       </c>
       <c r="C113" s="4">
-        <f t="shared" ref="C113:G113" si="43">-_xlfn.STDEV.P(C102:C111)</f>
+        <f t="shared" ref="C113:G113" si="64">-_xlfn.STDEV.P(C102:C111)</f>
         <v>-7.539230729988044E-3</v>
       </c>
       <c r="D113" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>-6.8183575734919585E-3</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>-5.5722526863018233E-3</v>
       </c>
       <c r="F113" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>-6.493073232299011E-3</v>
       </c>
       <c r="G113" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>-6.1449165982946623E-3</v>
       </c>
       <c r="H113" s="4"/>
@@ -7760,23 +7765,23 @@
         <v>4.7140452079087508E-4</v>
       </c>
       <c r="N113" s="4">
-        <f t="shared" ref="N113:R113" si="44">_xlfn.STDEV.P(N102:N111)</f>
+        <f t="shared" ref="N113:R113" si="65">_xlfn.STDEV.P(N102:N111)</f>
         <v>4.7140452079094485E-4</v>
       </c>
       <c r="O113" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>4.969039949999206E-4</v>
       </c>
       <c r="P113" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>4.7140452079108444E-4</v>
       </c>
       <c r="Q113" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>4.157397096416087E-4</v>
       </c>
       <c r="R113" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>4.7140452079118917E-4</v>
       </c>
       <c r="S113" s="4"/>
@@ -7788,23 +7793,23 @@
         <v>-1.1303096920755923E-2</v>
       </c>
       <c r="Y113" s="4">
-        <f t="shared" ref="Y113:AC113" si="45">-_xlfn.STDEV.P(Y102:Y111)</f>
+        <f t="shared" ref="Y113:AC113" si="66">-_xlfn.STDEV.P(Y102:Y111)</f>
         <v>-9.1978258300536384E-3</v>
       </c>
       <c r="Z113" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>-1.0258654882585623E-2</v>
       </c>
       <c r="AA113" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>-1.085172797300051E-2</v>
       </c>
       <c r="AB113" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>-1.4323407415835066E-2</v>
       </c>
       <c r="AC113" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>-1.3505924625881807E-2</v>
       </c>
       <c r="AD113" s="4"/>
@@ -7816,23 +7821,23 @@
         <v>4.9690399499994261E-4</v>
       </c>
       <c r="AJ113" s="4">
-        <f t="shared" ref="AJ113:AN113" si="46">_xlfn.STDEV.P(AJ102:AJ111)</f>
+        <f t="shared" ref="AJ113:AN113" si="67">_xlfn.STDEV.P(AJ102:AJ111)</f>
         <v>4.7140452079090994E-4</v>
       </c>
       <c r="AK113" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>4.969039949999206E-4</v>
       </c>
       <c r="AL113" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>4.7140452079090994E-4</v>
       </c>
       <c r="AM113" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>4.9690399500005298E-4</v>
       </c>
       <c r="AN113" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>3.0225490019411779E-3</v>
       </c>
       <c r="AO113" s="4"/>
@@ -7840,7 +7845,7 @@
       <c r="AQ113" s="4"/>
       <c r="AR113" s="4"/>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>30</v>
       </c>
@@ -7849,23 +7854,23 @@
         <v>-2.5000000000000355E-2</v>
       </c>
       <c r="C114" s="4">
-        <f t="shared" ref="C114:G114" si="47">MAX(C102:C111)</f>
+        <f t="shared" ref="C114:G114" si="68">MAX(C102:C111)</f>
         <v>-1.9000000000000128E-2</v>
       </c>
       <c r="D114" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>-3.0000000000000249E-2</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>-2.1000000000000352E-2</v>
       </c>
       <c r="F114" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>-3.700000000000081E-2</v>
       </c>
       <c r="G114" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>-2.7000000000000135E-2</v>
       </c>
       <c r="H114" s="4"/>
@@ -7877,23 +7882,23 @@
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="N114" s="4">
-        <f t="shared" ref="N114:R114" si="48">MAX(N103:N112)</f>
+        <f t="shared" ref="N114:R114" si="69">MAX(N103:N112)</f>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="O114" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="P114" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="Q114" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="R114" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="S114" s="4"/>
@@ -7905,23 +7910,23 @@
         <v>-2.5999999999999801E-2</v>
       </c>
       <c r="Y114" s="4">
-        <f t="shared" ref="Y114:AC114" si="49">MAX(Y102:Y111)</f>
+        <f t="shared" ref="Y114:AC114" si="70">MAX(Y102:Y111)</f>
         <v>-2.3999999999999133E-2</v>
       </c>
       <c r="Z114" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>-3.0999999999999694E-2</v>
       </c>
       <c r="AA114" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>-2.2999999999999687E-2</v>
       </c>
       <c r="AB114" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>-2.8999999999999915E-2</v>
       </c>
       <c r="AC114" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>-2.2000000000000242E-2</v>
       </c>
       <c r="AD114" s="4"/>
@@ -7933,23 +7938,23 @@
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AJ114" s="4">
-        <f t="shared" ref="AJ114:AN114" si="50">MAX(AJ103:AJ112)</f>
+        <f t="shared" ref="AJ114:AN114" si="71">MAX(AJ103:AJ112)</f>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AK114" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AL114" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AM114" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="AN114" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="AO114" s="4"/>
@@ -7957,7 +7962,7 @@
       <c r="AQ114" s="4"/>
       <c r="AR114" s="4"/>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -7966,23 +7971,23 @@
         <v>-4.3000000000000149E-2</v>
       </c>
       <c r="C115" s="4">
-        <f t="shared" ref="C115:G115" si="51">MIN(C102:C111)</f>
+        <f t="shared" ref="C115:G115" si="72">MIN(C102:C111)</f>
         <v>-3.9999999999999147E-2</v>
       </c>
       <c r="D115" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>-4.8999999999999488E-2</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>-3.9000000000000146E-2</v>
       </c>
       <c r="F115" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>-6.0999999999999943E-2</v>
       </c>
       <c r="G115" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="72"/>
         <v>-4.5999999999999375E-2</v>
       </c>
       <c r="H115" s="4"/>
@@ -7994,23 +7999,23 @@
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="N115" s="4">
-        <f t="shared" ref="N115:R115" si="52">MIN(N104:N113)</f>
+        <f t="shared" ref="N115:R115" si="73">MIN(N104:N113)</f>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="O115" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="P115" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="Q115" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>-5.0000000000000711E-2</v>
       </c>
       <c r="R115" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>-5.0000000000000711E-2</v>
       </c>
       <c r="S115" s="4"/>
@@ -8022,23 +8027,23 @@
         <v>-6.4000000000000501E-2</v>
       </c>
       <c r="Y115" s="4">
-        <f t="shared" ref="Y115:AC115" si="53">MIN(Y102:Y111)</f>
+        <f t="shared" ref="Y115:AC115" si="74">MIN(Y102:Y111)</f>
         <v>-5.200000000000049E-2</v>
       </c>
       <c r="Z115" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>-6.1000000000000387E-2</v>
       </c>
       <c r="AA115" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>-5.200000000000049E-2</v>
       </c>
       <c r="AB115" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>-7.5999999999999623E-2</v>
       </c>
       <c r="AC115" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>-7.6000000000000512E-2</v>
       </c>
       <c r="AD115" s="4"/>
@@ -8050,23 +8055,23 @@
         <v>-5.0000000000000266E-2</v>
       </c>
       <c r="AJ115" s="4">
-        <f t="shared" ref="AJ115:AN115" si="54">MIN(AJ104:AJ113)</f>
+        <f t="shared" ref="AJ115:AN115" si="75">MIN(AJ104:AJ113)</f>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AK115" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>-5.0000000000000711E-2</v>
       </c>
       <c r="AL115" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>-4.9999999999999822E-2</v>
       </c>
       <c r="AM115" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>-5.0000000000000711E-2</v>
       </c>
       <c r="AN115" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>-5.0000000000000266E-2</v>
       </c>
       <c r="AO115" s="4"/>
@@ -8074,7 +8079,7 @@
       <c r="AQ115" s="4"/>
       <c r="AR115" s="4"/>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>33</v>
       </c>
@@ -8088,8 +8093,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B119" s="24" t="s">
         <v>34</v>
       </c>
@@ -8120,38 +8125,38 @@
       <c r="Q119" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="X119" s="28" t="s">
+      <c r="X119" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="Y119" s="28" t="s">
+      <c r="Y119" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Z119" s="28" t="s">
+      <c r="Z119" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AA119" s="28" t="s">
+      <c r="AA119" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AB119" s="28" t="s">
+      <c r="AB119" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AI119" s="28" t="s">
+      <c r="AI119" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AJ119" s="28" t="s">
+      <c r="AJ119" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AK119" s="28" t="s">
+      <c r="AK119" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AL119" s="28" t="s">
+      <c r="AL119" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AM119" s="28" t="s">
+      <c r="AM119" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>38</v>
       </c>
@@ -8182,38 +8187,38 @@
       <c r="Q120">
         <v>2.6666666666684476E-7</v>
       </c>
-      <c r="X120" s="26" t="s">
+      <c r="X120" t="s">
         <v>38</v>
       </c>
-      <c r="Y120" s="26">
+      <c r="Y120">
         <v>6</v>
       </c>
-      <c r="Z120" s="26">
+      <c r="Z120">
         <v>-0.22599999999999998</v>
       </c>
-      <c r="AA120" s="26">
+      <c r="AA120">
         <v>-3.7666666666666661E-2</v>
       </c>
-      <c r="AB120" s="26">
+      <c r="AB120">
         <v>2.9466666666664204E-5</v>
       </c>
-      <c r="AI120" s="26" t="s">
+      <c r="AI120" t="s">
         <v>38</v>
       </c>
-      <c r="AJ120" s="26">
+      <c r="AJ120">
         <v>6</v>
       </c>
-      <c r="AK120" s="26">
+      <c r="AK120">
         <v>-0.29699999999999971</v>
       </c>
-      <c r="AL120" s="26">
+      <c r="AL120">
         <v>-4.9499999999999954E-2</v>
       </c>
-      <c r="AM120" s="26">
+      <c r="AM120">
         <v>6.9999999999975687E-7</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>39</v>
       </c>
@@ -8244,38 +8249,38 @@
       <c r="Q121">
         <v>3.0000000000020036E-7</v>
       </c>
-      <c r="X121" s="26" t="s">
+      <c r="X121" t="s">
         <v>39</v>
       </c>
-      <c r="Y121" s="26">
+      <c r="Y121">
         <v>6</v>
       </c>
-      <c r="Z121" s="26">
+      <c r="Z121">
         <v>-0.16099999999999959</v>
       </c>
-      <c r="AA121" s="26">
+      <c r="AA121">
         <v>-2.6833333333333265E-2</v>
       </c>
-      <c r="AB121" s="26">
+      <c r="AB121">
         <v>1.656666666666737E-5</v>
       </c>
-      <c r="AI121" s="26" t="s">
+      <c r="AI121" t="s">
         <v>39</v>
       </c>
-      <c r="AJ121" s="26">
+      <c r="AJ121">
         <v>6</v>
       </c>
-      <c r="AK121" s="26">
+      <c r="AK121">
         <v>-0.29699999999999793</v>
       </c>
-      <c r="AL121" s="26">
+      <c r="AL121">
         <v>-4.9499999999999655E-2</v>
       </c>
-      <c r="AM121" s="26">
+      <c r="AM121">
         <v>3.0000000000020036E-7</v>
       </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>40</v>
       </c>
@@ -8306,38 +8311,38 @@
       <c r="Q122">
         <v>1.6666666666648192E-7</v>
       </c>
-      <c r="X122" s="26" t="s">
+      <c r="X122" t="s">
         <v>40</v>
       </c>
-      <c r="Y122" s="26">
+      <c r="Y122">
         <v>6</v>
       </c>
-      <c r="Z122" s="26">
+      <c r="Z122">
         <v>-0.26799999999999802</v>
       </c>
-      <c r="AA122" s="26">
+      <c r="AA122">
         <v>-4.4666666666666334E-2</v>
       </c>
-      <c r="AB122" s="26">
+      <c r="AB122">
         <v>1.9866666666667382E-5</v>
       </c>
-      <c r="AI122" s="26" t="s">
+      <c r="AI122" t="s">
         <v>40</v>
       </c>
-      <c r="AJ122" s="26">
+      <c r="AJ122">
         <v>6</v>
       </c>
-      <c r="AK122" s="26">
+      <c r="AK122">
         <v>-0.2959999999999976</v>
       </c>
-      <c r="AL122" s="26">
+      <c r="AL122">
         <v>-4.9333333333332931E-2</v>
       </c>
-      <c r="AM122" s="26">
+      <c r="AM122">
         <v>2.6666666666684471E-7</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>41</v>
       </c>
@@ -8368,38 +8373,38 @@
       <c r="Q123">
         <v>2.6666666666637111E-7</v>
       </c>
-      <c r="X123" s="26" t="s">
+      <c r="X123" t="s">
         <v>41</v>
       </c>
-      <c r="Y123" s="26">
+      <c r="Y123">
         <v>6</v>
       </c>
-      <c r="Z123" s="26">
+      <c r="Z123">
         <v>-0.21700000000000319</v>
       </c>
-      <c r="AA123" s="26">
+      <c r="AA123">
         <v>-3.6166666666667201E-2</v>
       </c>
-      <c r="AB123" s="26">
+      <c r="AB123">
         <v>1.7766666666666098E-5</v>
       </c>
-      <c r="AI123" s="26" t="s">
+      <c r="AI123" t="s">
         <v>41</v>
       </c>
-      <c r="AJ123" s="26">
+      <c r="AJ123">
         <v>6</v>
       </c>
-      <c r="AK123" s="26">
+      <c r="AK123">
         <v>-0.29600000000000293</v>
       </c>
-      <c r="AL123" s="26">
+      <c r="AL123">
         <v>-4.9333333333333819E-2</v>
       </c>
-      <c r="AM123" s="26">
+      <c r="AM123">
         <v>2.6666666666684476E-7</v>
       </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>42</v>
       </c>
@@ -8430,38 +8435,38 @@
       <c r="Q124">
         <v>1.6666666666677804E-7</v>
       </c>
-      <c r="X124" s="26" t="s">
+      <c r="X124" t="s">
         <v>42</v>
       </c>
-      <c r="Y124" s="26">
+      <c r="Y124">
         <v>6</v>
       </c>
-      <c r="Z124" s="26">
+      <c r="Z124">
         <v>-0.17499999999999716</v>
       </c>
-      <c r="AA124" s="26">
+      <c r="AA124">
         <v>-2.9166666666666192E-2</v>
       </c>
-      <c r="AB124" s="26">
+      <c r="AB124">
         <v>3.4566666666668336E-5</v>
       </c>
-      <c r="AI124" s="26" t="s">
+      <c r="AI124" t="s">
         <v>42</v>
       </c>
-      <c r="AJ124" s="26">
+      <c r="AJ124">
         <v>6</v>
       </c>
-      <c r="AK124" s="26">
+      <c r="AK124">
         <v>-0.2970000000000006</v>
       </c>
-      <c r="AL124" s="26">
+      <c r="AL124">
         <v>-4.9500000000000099E-2</v>
       </c>
-      <c r="AM124" s="26">
+      <c r="AM124">
         <v>2.9999999999966753E-7</v>
       </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>43</v>
       </c>
@@ -8492,38 +8497,38 @@
       <c r="Q125">
         <v>3.0000000000020036E-7</v>
       </c>
-      <c r="X125" s="26" t="s">
+      <c r="X125" t="s">
         <v>43</v>
       </c>
-      <c r="Y125" s="26">
+      <c r="Y125">
         <v>6</v>
       </c>
-      <c r="Z125" s="26">
+      <c r="Z125">
         <v>-0.24200000000000177</v>
       </c>
-      <c r="AA125" s="26">
+      <c r="AA125">
         <v>-4.0333333333333631E-2</v>
       </c>
-      <c r="AB125" s="26">
+      <c r="AB125">
         <v>3.4426666666666981E-4</v>
       </c>
-      <c r="AI125" s="26" t="s">
+      <c r="AI125" t="s">
         <v>43</v>
       </c>
-      <c r="AJ125" s="26">
+      <c r="AJ125">
         <v>6</v>
       </c>
-      <c r="AK125" s="26">
+      <c r="AK125">
         <v>-0.29800000000000004</v>
       </c>
-      <c r="AL125" s="26">
+      <c r="AL125">
         <v>-4.9666666666666671E-2</v>
       </c>
-      <c r="AM125" s="26">
+      <c r="AM125">
         <v>2.6666666666637106E-7</v>
       </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>44</v>
       </c>
@@ -8554,38 +8559,38 @@
       <c r="Q126">
         <v>2.6666666666684476E-7</v>
       </c>
-      <c r="X126" s="26" t="s">
+      <c r="X126" t="s">
         <v>44</v>
       </c>
-      <c r="Y126" s="26">
+      <c r="Y126">
         <v>6</v>
       </c>
-      <c r="Z126" s="26">
+      <c r="Z126">
         <v>-0.21200000000000063</v>
       </c>
-      <c r="AA126" s="26">
+      <c r="AA126">
         <v>-3.5333333333333439E-2</v>
       </c>
-      <c r="AB126" s="26">
+      <c r="AB126">
         <v>4.5066666666667561E-5</v>
       </c>
-      <c r="AI126" s="26" t="s">
+      <c r="AI126" t="s">
         <v>44</v>
       </c>
-      <c r="AJ126" s="26">
+      <c r="AJ126">
         <v>6</v>
       </c>
-      <c r="AK126" s="26">
+      <c r="AK126">
         <v>-0.29799999999999827</v>
       </c>
-      <c r="AL126" s="26">
+      <c r="AL126">
         <v>-4.966666666666638E-2</v>
       </c>
-      <c r="AM126" s="26">
+      <c r="AM126">
         <v>2.6666666666684476E-7</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>45</v>
       </c>
@@ -8616,38 +8621,38 @@
       <c r="Q127">
         <v>2.6666666666637111E-7</v>
       </c>
-      <c r="X127" s="26" t="s">
+      <c r="X127" t="s">
         <v>45</v>
       </c>
-      <c r="Y127" s="26">
+      <c r="Y127">
         <v>6</v>
       </c>
-      <c r="Z127" s="26">
+      <c r="Z127">
         <v>-0.2989999999999986</v>
       </c>
-      <c r="AA127" s="26">
+      <c r="AA127">
         <v>-4.9833333333333098E-2</v>
       </c>
-      <c r="AB127" s="26">
+      <c r="AB127">
         <v>1.6166666666665741E-5</v>
       </c>
-      <c r="AI127" s="26" t="s">
+      <c r="AI127" t="s">
         <v>45</v>
       </c>
-      <c r="AJ127" s="26">
+      <c r="AJ127">
         <v>6</v>
       </c>
-      <c r="AK127" s="26">
+      <c r="AK127">
         <v>-0.29699999999999793</v>
       </c>
-      <c r="AL127" s="26">
+      <c r="AL127">
         <v>-4.9499999999999655E-2</v>
       </c>
-      <c r="AM127" s="26">
+      <c r="AM127">
         <v>3.0000000000020036E-7</v>
       </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>46</v>
       </c>
@@ -8678,38 +8683,38 @@
       <c r="Q128">
         <v>2.6666666666660796E-7</v>
       </c>
-      <c r="X128" s="26" t="s">
+      <c r="X128" t="s">
         <v>46</v>
       </c>
-      <c r="Y128" s="26">
+      <c r="Y128">
         <v>6</v>
       </c>
-      <c r="Z128" s="26">
+      <c r="Z128">
         <v>-0.32399999999999762</v>
       </c>
-      <c r="AA128" s="26">
+      <c r="AA128">
         <v>-5.3999999999999604E-2</v>
       </c>
-      <c r="AB128" s="26">
+      <c r="AB128">
         <v>1.5599999999999918E-4</v>
       </c>
-      <c r="AI128" s="26" t="s">
+      <c r="AI128" t="s">
         <v>46</v>
       </c>
-      <c r="AJ128" s="26">
+      <c r="AJ128">
         <v>6</v>
       </c>
-      <c r="AK128" s="26">
+      <c r="AK128">
         <v>-0.29600000000000204</v>
       </c>
-      <c r="AL128" s="26">
+      <c r="AL128">
         <v>-4.9333333333333673E-2</v>
       </c>
-      <c r="AM128" s="26">
+      <c r="AM128">
         <v>2.6666666666660796E-7</v>
       </c>
     </row>
-    <row r="129" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>47</v>
       </c>
@@ -8740,50 +8745,38 @@
       <c r="Q129">
         <v>2.6666666666660796E-7</v>
       </c>
-      <c r="X129" s="26" t="s">
+      <c r="X129" t="s">
         <v>47</v>
       </c>
-      <c r="Y129" s="26">
+      <c r="Y129">
         <v>6</v>
       </c>
-      <c r="Z129" s="26">
+      <c r="Z129">
         <v>-0.35300000000000242</v>
       </c>
-      <c r="AA129" s="26">
+      <c r="AA129">
         <v>-5.8833333333333737E-2</v>
       </c>
-      <c r="AB129" s="26">
+      <c r="AB129">
         <v>4.8566666666666718E-5</v>
       </c>
-      <c r="AI129" s="26" t="s">
+      <c r="AI129" t="s">
         <v>47</v>
       </c>
-      <c r="AJ129" s="26">
+      <c r="AJ129">
         <v>6</v>
       </c>
-      <c r="AK129" s="26">
+      <c r="AK129">
         <v>-0.28600000000000181</v>
       </c>
-      <c r="AL129" s="26">
+      <c r="AL129">
         <v>-4.7666666666666968E-2</v>
       </c>
-      <c r="AM129" s="26">
+      <c r="AM129">
         <v>1.426666666666761E-5</v>
       </c>
     </row>
-    <row r="130" spans="2:41" x14ac:dyDescent="0.35">
-      <c r="X130" s="26"/>
-      <c r="Y130" s="26"/>
-      <c r="Z130" s="26"/>
-      <c r="AA130" s="26"/>
-      <c r="AB130" s="26"/>
-      <c r="AI130" s="26"/>
-      <c r="AJ130" s="26"/>
-      <c r="AK130" s="26"/>
-      <c r="AL130" s="26"/>
-      <c r="AM130" s="26"/>
-    </row>
-    <row r="131" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>48</v>
       </c>
@@ -8814,38 +8807,38 @@
       <c r="Q131">
         <v>2.6666666666648948E-7</v>
       </c>
-      <c r="X131" s="26" t="s">
+      <c r="X131" t="s">
         <v>48</v>
       </c>
-      <c r="Y131" s="26">
+      <c r="Y131">
         <v>10</v>
       </c>
-      <c r="Z131" s="26">
+      <c r="Z131">
         <v>-0.38199999999999967</v>
       </c>
-      <c r="AA131" s="26">
+      <c r="AA131">
         <v>-3.819999999999997E-2</v>
       </c>
-      <c r="AB131" s="26">
+      <c r="AB131">
         <v>1.4195555555555789E-4</v>
       </c>
-      <c r="AI131" s="26" t="s">
+      <c r="AI131" t="s">
         <v>48</v>
       </c>
-      <c r="AJ131" s="26">
+      <c r="AJ131">
         <v>10</v>
       </c>
-      <c r="AK131" s="26">
+      <c r="AK131">
         <v>-0.49599999999999911</v>
       </c>
-      <c r="AL131" s="26">
+      <c r="AL131">
         <v>-4.9599999999999908E-2</v>
       </c>
-      <c r="AM131" s="26">
+      <c r="AM131">
         <v>2.6666666666664746E-7</v>
       </c>
     </row>
-    <row r="132" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>49</v>
       </c>
@@ -8876,38 +8869,38 @@
       <c r="Q132">
         <v>2.3333333333328193E-7</v>
       </c>
-      <c r="X132" s="26" t="s">
+      <c r="X132" t="s">
         <v>49</v>
       </c>
-      <c r="Y132" s="26">
+      <c r="Y132">
         <v>10</v>
       </c>
-      <c r="Z132" s="26">
+      <c r="Z132">
         <v>-0.35999999999999988</v>
       </c>
-      <c r="AA132" s="26">
+      <c r="AA132">
         <v>-3.599999999999999E-2</v>
       </c>
-      <c r="AB132" s="26">
+      <c r="AB132">
         <v>9.4000000000002068E-5</v>
       </c>
-      <c r="AI132" s="26" t="s">
+      <c r="AI132" t="s">
         <v>49</v>
       </c>
-      <c r="AJ132" s="26">
+      <c r="AJ132">
         <v>10</v>
       </c>
-      <c r="AK132" s="26">
+      <c r="AK132">
         <v>-0.49399999999999977</v>
       </c>
-      <c r="AL132" s="26">
+      <c r="AL132">
         <v>-4.9399999999999979E-2</v>
       </c>
-      <c r="AM132" s="26">
+      <c r="AM132">
         <v>2.6666666666652903E-7</v>
       </c>
     </row>
-    <row r="133" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>50</v>
       </c>
@@ -8938,38 +8931,38 @@
       <c r="Q133">
         <v>2.7777777777771661E-7</v>
       </c>
-      <c r="X133" s="26" t="s">
+      <c r="X133" t="s">
         <v>50</v>
       </c>
-      <c r="Y133" s="26">
+      <c r="Y133">
         <v>10</v>
       </c>
-      <c r="Z133" s="26">
+      <c r="Z133">
         <v>-0.44399999999999995</v>
       </c>
-      <c r="AA133" s="26">
+      <c r="AA133">
         <v>-4.4399999999999995E-2</v>
       </c>
-      <c r="AB133" s="26">
+      <c r="AB133">
         <v>1.1693333333333085E-4</v>
       </c>
-      <c r="AI133" s="26" t="s">
+      <c r="AI133" t="s">
         <v>50</v>
       </c>
-      <c r="AJ133" s="26">
+      <c r="AJ133">
         <v>10</v>
       </c>
-      <c r="AK133" s="26">
+      <c r="AK133">
         <v>-0.49600000000000088</v>
       </c>
-      <c r="AL133" s="26">
+      <c r="AL133">
         <v>-4.9600000000000088E-2</v>
       </c>
-      <c r="AM133" s="26">
+      <c r="AM133">
         <v>2.6666666666660791E-7</v>
       </c>
     </row>
-    <row r="134" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>51</v>
       </c>
@@ -9000,38 +8993,38 @@
       <c r="Q134">
         <v>2.3333333333342007E-7</v>
       </c>
-      <c r="X134" s="26" t="s">
+      <c r="X134" t="s">
         <v>51</v>
       </c>
-      <c r="Y134" s="26">
+      <c r="Y134">
         <v>10</v>
       </c>
-      <c r="Z134" s="26">
+      <c r="Z134">
         <v>-0.36199999999999966</v>
       </c>
-      <c r="AA134" s="26">
+      <c r="AA134">
         <v>-3.6199999999999968E-2</v>
       </c>
-      <c r="AB134" s="26">
+      <c r="AB134">
         <v>1.3084444444444647E-4</v>
       </c>
-      <c r="AI134" s="26" t="s">
+      <c r="AI134" t="s">
         <v>51</v>
       </c>
-      <c r="AJ134" s="26">
+      <c r="AJ134">
         <v>10</v>
       </c>
-      <c r="AK134" s="26">
+      <c r="AK134">
         <v>-0.49399999999999977</v>
       </c>
-      <c r="AL134" s="26">
+      <c r="AL134">
         <v>-4.9399999999999979E-2</v>
       </c>
-      <c r="AM134" s="26">
+      <c r="AM134">
         <v>2.6666666666652903E-7</v>
       </c>
     </row>
-    <row r="135" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>52</v>
       </c>
@@ -9062,38 +9055,38 @@
       <c r="Q135">
         <v>1.7777777777785704E-7</v>
       </c>
-      <c r="X135" s="26" t="s">
+      <c r="X135" t="s">
         <v>52</v>
       </c>
-      <c r="Y135" s="26">
+      <c r="Y135">
         <v>10</v>
       </c>
-      <c r="Z135" s="26">
+      <c r="Z135">
         <v>-0.48199999999999976</v>
       </c>
-      <c r="AA135" s="26">
+      <c r="AA135">
         <v>-4.8199999999999979E-2</v>
       </c>
-      <c r="AB135" s="26">
+      <c r="AB135">
         <v>2.2795555555555448E-4</v>
       </c>
-      <c r="AI135" s="26" t="s">
+      <c r="AI135" t="s">
         <v>52</v>
       </c>
-      <c r="AJ135" s="26">
+      <c r="AJ135">
         <v>10</v>
       </c>
-      <c r="AK135" s="26">
+      <c r="AK135">
         <v>-0.49299999999999944</v>
       </c>
-      <c r="AL135" s="26">
+      <c r="AL135">
         <v>-4.9299999999999941E-2</v>
       </c>
-      <c r="AM135" s="26">
+      <c r="AM135">
         <v>4.5555555555562302E-7</v>
       </c>
     </row>
-    <row r="136" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="25" t="s">
         <v>53</v>
       </c>
@@ -9124,38 +9117,38 @@
       <c r="Q136" s="25">
         <v>2.3333333333352871E-7</v>
       </c>
-      <c r="X136" s="27" t="s">
+      <c r="X136" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="Y136" s="27">
+      <c r="Y136" s="25">
         <v>10</v>
       </c>
-      <c r="Z136" s="27">
+      <c r="Z136" s="25">
         <v>-0.44700000000000006</v>
       </c>
-      <c r="AA136" s="27">
+      <c r="AA136" s="25">
         <v>-4.4700000000000004E-2</v>
       </c>
-      <c r="AB136" s="27">
+      <c r="AB136" s="25">
         <v>2.0267777777777839E-4</v>
       </c>
-      <c r="AI136" s="27" t="s">
+      <c r="AI136" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AJ136" s="27">
+      <c r="AJ136" s="25">
         <v>10</v>
       </c>
-      <c r="AK136" s="27">
+      <c r="AK136" s="25">
         <v>-0.48499999999999988</v>
       </c>
-      <c r="AL136" s="27">
+      <c r="AL136" s="25">
         <v>-4.8499999999999988E-2</v>
       </c>
-      <c r="AM136" s="27">
+      <c r="AM136" s="25">
         <v>9.1666666666665224E-6</v>
       </c>
     </row>
-    <row r="139" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>54</v>
       </c>
@@ -9169,7 +9162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B140" s="24" t="s">
         <v>55</v>
       </c>
@@ -9212,50 +9205,50 @@
       <c r="S140" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="X140" s="28" t="s">
+      <c r="X140" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="Y140" s="28" t="s">
+      <c r="Y140" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="Z140" s="28" t="s">
+      <c r="Z140" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AA140" s="28" t="s">
+      <c r="AA140" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="AB140" s="28" t="s">
+      <c r="AB140" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="AC140" s="28" t="s">
+      <c r="AC140" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AD140" s="28" t="s">
+      <c r="AD140" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="AI140" s="28" t="s">
+      <c r="AI140" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AJ140" s="28" t="s">
+      <c r="AJ140" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AK140" s="28" t="s">
+      <c r="AK140" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AL140" s="28" t="s">
+      <c r="AL140" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="AM140" s="28" t="s">
+      <c r="AM140" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="AN140" s="28" t="s">
+      <c r="AN140" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AO140" s="28" t="s">
+      <c r="AO140" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>62</v>
       </c>
@@ -9298,50 +9291,50 @@
       <c r="S141">
         <v>2.0957550937252747</v>
       </c>
-      <c r="X141" s="26" t="s">
+      <c r="X141" t="s">
         <v>62</v>
       </c>
-      <c r="Y141" s="26">
+      <c r="Y141">
         <v>5.9126833333333568E-3</v>
       </c>
-      <c r="Z141" s="26">
+      <c r="Z141">
         <v>9</v>
       </c>
-      <c r="AA141" s="26">
+      <c r="AA141">
         <v>6.569648148148174E-4</v>
       </c>
-      <c r="AB141" s="26">
+      <c r="AB141">
         <v>12.761462477607418</v>
       </c>
-      <c r="AC141" s="26">
+      <c r="AC141">
         <v>8.8581620157735296E-10</v>
       </c>
-      <c r="AD141" s="26">
+      <c r="AD141">
         <v>2.0957550937252747</v>
       </c>
-      <c r="AI141" s="26" t="s">
+      <c r="AI141" t="s">
         <v>62</v>
       </c>
-      <c r="AJ141" s="26">
+      <c r="AJ141">
         <v>1.859999999999148E-5</v>
       </c>
-      <c r="AK141" s="26">
+      <c r="AK141">
         <v>9</v>
       </c>
-      <c r="AL141" s="26">
+      <c r="AL141">
         <v>2.0666666666657201E-6</v>
       </c>
-      <c r="AM141" s="26">
+      <c r="AM141">
         <v>1.198453608246802</v>
       </c>
-      <c r="AN141" s="26">
+      <c r="AN141">
         <v>0.31960752962114058</v>
       </c>
-      <c r="AO141" s="26">
+      <c r="AO141">
         <v>2.0957550937252747</v>
       </c>
     </row>
-    <row r="142" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>63</v>
       </c>
@@ -9384,50 +9377,50 @@
       <c r="S142">
         <v>2.4220854657179149</v>
       </c>
-      <c r="X142" s="26" t="s">
+      <c r="X142" t="s">
         <v>63</v>
       </c>
-      <c r="Y142" s="26">
+      <c r="Y142">
         <v>1.3248833333333355E-3</v>
       </c>
-      <c r="Z142" s="26">
+      <c r="Z142">
         <v>5</v>
       </c>
-      <c r="AA142" s="26">
+      <c r="AA142">
         <v>2.6497666666666712E-4</v>
       </c>
-      <c r="AB142" s="26">
+      <c r="AB142">
         <v>5.1471398663280334</v>
       </c>
-      <c r="AC142" s="26">
+      <c r="AC142">
         <v>8.1098667365192122E-4</v>
       </c>
-      <c r="AD142" s="26">
+      <c r="AD142">
         <v>2.4220854657179149</v>
       </c>
-      <c r="AI142" s="26" t="s">
+      <c r="AI142" t="s">
         <v>63</v>
       </c>
-      <c r="AJ142" s="26">
+      <c r="AJ142">
         <v>8.4000000000000958E-6</v>
       </c>
-      <c r="AK142" s="26">
+      <c r="AK142">
         <v>5</v>
       </c>
-      <c r="AL142" s="26">
+      <c r="AL142">
         <v>1.6800000000000191E-6</v>
       </c>
-      <c r="AM142" s="26">
+      <c r="AM142">
         <v>0.97422680412366403</v>
       </c>
-      <c r="AN142" s="26">
+      <c r="AN142">
         <v>0.44382340877122495</v>
       </c>
-      <c r="AO142" s="26">
+      <c r="AO142">
         <v>2.4220854657179149</v>
       </c>
     </row>
-    <row r="143" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>64</v>
       </c>
@@ -9452,54 +9445,32 @@
       <c r="P143">
         <v>2.6962962962962769E-7</v>
       </c>
-      <c r="X143" s="26" t="s">
+      <c r="X143" t="s">
         <v>64</v>
       </c>
-      <c r="Y143" s="26">
+      <c r="Y143">
         <v>2.3166166666666781E-3</v>
       </c>
-      <c r="Z143" s="26">
+      <c r="Z143">
         <v>45</v>
       </c>
-      <c r="AA143" s="26">
+      <c r="AA143">
         <v>5.1480370370370625E-5</v>
       </c>
-      <c r="AB143" s="26"/>
-      <c r="AC143" s="26"/>
-      <c r="AD143" s="26"/>
-      <c r="AI143" s="26" t="s">
+      <c r="AI143" t="s">
         <v>64</v>
       </c>
-      <c r="AJ143" s="26">
+      <c r="AJ143">
         <v>7.7600000000004651E-5</v>
       </c>
-      <c r="AK143" s="26">
+      <c r="AK143">
         <v>45</v>
       </c>
-      <c r="AL143" s="26">
+      <c r="AL143">
         <v>1.7244444444445477E-6</v>
       </c>
-      <c r="AM143" s="26"/>
-      <c r="AN143" s="26"/>
-      <c r="AO143" s="26"/>
-    </row>
-    <row r="144" spans="2:41" x14ac:dyDescent="0.35">
-      <c r="X144" s="26"/>
-      <c r="Y144" s="26"/>
-      <c r="Z144" s="26"/>
-      <c r="AA144" s="26"/>
-      <c r="AB144" s="26"/>
-      <c r="AC144" s="26"/>
-      <c r="AD144" s="26"/>
-      <c r="AI144" s="26"/>
-      <c r="AJ144" s="26"/>
-      <c r="AK144" s="26"/>
-      <c r="AL144" s="26"/>
-      <c r="AM144" s="26"/>
-      <c r="AN144" s="26"/>
-      <c r="AO144" s="26"/>
-    </row>
-    <row r="145" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="145" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="25" t="s">
         <v>65</v>
       </c>
@@ -9526,142 +9497,141 @@
       <c r="Q145" s="25"/>
       <c r="R145" s="25"/>
       <c r="S145" s="25"/>
-      <c r="X145" s="27" t="s">
+      <c r="X145" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="Y145" s="27">
+      <c r="Y145" s="25">
         <v>9.5541833333333704E-3</v>
       </c>
-      <c r="Z145" s="27">
+      <c r="Z145" s="25">
         <v>59</v>
       </c>
-      <c r="AA145" s="27"/>
-      <c r="AB145" s="27"/>
-      <c r="AC145" s="27"/>
-      <c r="AD145" s="27"/>
-      <c r="AI145" s="27" t="s">
+      <c r="AA145" s="25"/>
+      <c r="AB145" s="25"/>
+      <c r="AC145" s="25"/>
+      <c r="AD145" s="25"/>
+      <c r="AI145" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AJ145" s="27">
+      <c r="AJ145" s="25">
         <v>1.0459999999999623E-4</v>
       </c>
-      <c r="AK145" s="27">
+      <c r="AK145" s="25">
         <v>59</v>
       </c>
-      <c r="AL145" s="27"/>
-      <c r="AM145" s="27"/>
-      <c r="AN145" s="27"/>
-      <c r="AO145" s="27"/>
+      <c r="AL145" s="25"/>
+      <c r="AM145" s="25"/>
+      <c r="AN145" s="25"/>
+      <c r="AO145" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:F13">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:F27">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:F41">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:F55">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:F69">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73:F85">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:Q13">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="between">
-      <formula>$W$4</formula>
-      <formula>$X$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:F27">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+  <conditionalFormatting sqref="P17:Q27">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17:Q27">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F41">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+  <conditionalFormatting sqref="P31:Q41">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P31:Q41">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F55">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+  <conditionalFormatting sqref="P45:Q55">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P45:Q55">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59:F69">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+  <conditionalFormatting sqref="P59:Q69">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P59:Q69">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73:F85">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P73:Q84">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P73:Q85">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P85:Q85">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"PASS"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4">
+    <cfRule type="cellIs" dxfId="4" priority="27" operator="between">
+      <formula>$W$4</formula>
+      <formula>$X$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W85:X85">
